--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-prompt.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-prompt.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-01-10</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-prompt.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-prompt.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-prompt.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-prompt.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-prompt.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-prompt.xlsx
@@ -21,12 +21,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="509">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2118,6 +2118,12 @@
     <t>业务主键</t>
   </si>
   <si>
+    <t>model.auditConfig.businessKeyTips</t>
+  </si>
+  <si>
+    <t>如果单据审计关联的操作审计维护了业务主键则使用业务主键查询操作记录，如果未指定业务主键且维护了数据关系则使用数据主键查询操作记录</t>
+  </si>
+  <si>
     <t>model.auditConfig.clientName</t>
   </si>
   <si>
@@ -2190,6 +2196,18 @@
     <t>服务</t>
   </si>
   <si>
+    <t>model.auditConfig.sourceColumnName</t>
+  </si>
+  <si>
+    <t>来源字段</t>
+  </si>
+  <si>
+    <t>model.auditConfig.sourceTableName</t>
+  </si>
+  <si>
+    <t>来源表</t>
+  </si>
+  <si>
     <t>model.auditConfig.tableName</t>
   </si>
   <si>
@@ -2199,6 +2217,18 @@
     <t>表名</t>
   </si>
   <si>
+    <t>model.auditConfig.targetColumnName</t>
+  </si>
+  <si>
+    <t>目标字段</t>
+  </si>
+  <si>
+    <t>model.auditConfig.targetTableName</t>
+  </si>
+  <si>
+    <t>目标表</t>
+  </si>
+  <si>
     <t>model.auditConfig.tenantId</t>
   </si>
   <si>
@@ -2232,6 +2262,12 @@
     <t>添加脱敏记录</t>
   </si>
   <si>
+    <t>view.button.associateInfo</t>
+  </si>
+  <si>
+    <t>添加数据关系</t>
+  </si>
+  <si>
     <t>view.message.create</t>
   </si>
   <si>
@@ -2241,6 +2277,9 @@
     <t>新建操作审计配置</t>
   </si>
   <si>
+    <t>view.message.createAssociate</t>
+  </si>
+  <si>
     <t>view.message.createDesensitize</t>
   </si>
   <si>
@@ -2253,6 +2292,12 @@
     <t>编辑操作审计配置</t>
   </si>
   <si>
+    <t>view.message.editAssociate</t>
+  </si>
+  <si>
+    <t>编辑数据关系</t>
+  </si>
+  <si>
     <t>view.message.editDesensitize</t>
   </si>
   <si>
@@ -2316,6 +2361,9 @@
     <t>model.auditQuery.businessKey</t>
   </si>
   <si>
+    <t>model.auditQuery.client</t>
+  </si>
+  <si>
     <t>model.auditQuery.clientName</t>
   </si>
   <si>
@@ -2430,15 +2478,18 @@
     <t>操作耗时</t>
   </si>
   <si>
+    <t>model.auditQuery.user</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
     <t>model.auditQuery.userId</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>用户</t>
-  </si>
-  <si>
     <t>model.auditQuery.value</t>
   </si>
   <si>
@@ -2475,6 +2526,12 @@
     <t>操作响应</t>
   </si>
   <si>
+    <t>view.message.title.auditQuery</t>
+  </si>
+  <si>
+    <t>操作审计日志</t>
+  </si>
+  <si>
     <t>view.message.title.list</t>
   </si>
   <si>
@@ -2484,6 +2541,66 @@
     <t>操作审计查询</t>
   </si>
   <si>
+    <t>hmnt.common</t>
+  </si>
+  <si>
+    <t>model.common.auditContent</t>
+  </si>
+  <si>
+    <t>model.common.auditDatetime</t>
+  </si>
+  <si>
+    <t>model.common.auditResult</t>
+  </si>
+  <si>
+    <t>model.common.auditType</t>
+  </si>
+  <si>
+    <t>model.common.businessKey</t>
+  </si>
+  <si>
+    <t>model.common.clientName</t>
+  </si>
+  <si>
+    <t>model.common.displayName</t>
+  </si>
+  <si>
+    <t>model.common.endProcessTime</t>
+  </si>
+  <si>
+    <t>操作时间至</t>
+  </si>
+  <si>
+    <t>model.common.fieldValueNew</t>
+  </si>
+  <si>
+    <t>现值</t>
+  </si>
+  <si>
+    <t>model.common.fieldValueOld</t>
+  </si>
+  <si>
+    <t>原值</t>
+  </si>
+  <si>
+    <t>model.common.operateType</t>
+  </si>
+  <si>
+    <t>操作类型</t>
+  </si>
+  <si>
+    <t>model.common.service</t>
+  </si>
+  <si>
+    <t>model.common.startProcessTime</t>
+  </si>
+  <si>
+    <t>操作时间从</t>
+  </si>
+  <si>
+    <t>model.common.tableName</t>
+  </si>
+  <si>
     <t>hmnt.dataAudit</t>
   </si>
   <si>
@@ -2502,9 +2619,6 @@
     <t>Operation type</t>
   </si>
   <si>
-    <t>操作类型</t>
-  </si>
-  <si>
     <t>model.dataAudit.columnName</t>
   </si>
   <si>
@@ -2520,9 +2634,6 @@
     <t>Operation time to</t>
   </si>
   <si>
-    <t>操作时间至</t>
-  </si>
-  <si>
     <t>model.dataAudit.entityCode</t>
   </si>
   <si>
@@ -2574,18 +2685,12 @@
     <t>present value</t>
   </si>
   <si>
-    <t>现值</t>
-  </si>
-  <si>
     <t>model.dataAudit.fieldValueOld</t>
   </si>
   <si>
     <t>Original value</t>
   </si>
   <si>
-    <t>原值</t>
-  </si>
-  <si>
     <t>model.dataAudit.lang</t>
   </si>
   <si>
@@ -2625,9 +2730,6 @@
     <t>Operating time from</t>
   </si>
   <si>
-    <t>操作时间从</t>
-  </si>
-  <si>
     <t>model.dataAudit.tableName</t>
   </si>
   <si>
@@ -2661,6 +2763,12 @@
     <t>数据审计查询</t>
   </si>
   <si>
+    <t>view.title.threeDataAuditLog</t>
+  </si>
+  <si>
+    <t>数据审计日志</t>
+  </si>
+  <si>
     <t>hmnt.dataAuditConfig</t>
   </si>
   <si>
@@ -3045,6 +3153,30 @@
     <t>单据审计配置</t>
   </si>
   <si>
+    <t>view.option.businessKey</t>
+  </si>
+  <si>
+    <t>路由参数</t>
+  </si>
+  <si>
+    <t>view.option.lovView</t>
+  </si>
+  <si>
+    <t>值集视图</t>
+  </si>
+  <si>
+    <t>view.option.org</t>
+  </si>
+  <si>
+    <t>租户级</t>
+  </si>
+  <si>
+    <t>view.option.site</t>
+  </si>
+  <si>
+    <t>平台级</t>
+  </si>
+  <si>
     <t>view.title.auditContent</t>
   </si>
   <si>
@@ -3225,15 +3357,9 @@
     <t>Operating parameters</t>
   </si>
   <si>
-    <t>view.message.title.auditQuery</t>
-  </si>
-  <si>
     <t>Operational audit log</t>
   </si>
   <si>
-    <t>操作审计日志</t>
-  </si>
-  <si>
     <t>hmnt.threeDataAudit</t>
   </si>
   <si>
@@ -3243,13 +3369,7 @@
     <t>edition</t>
   </si>
   <si>
-    <t>view.title.threeDataAuditLog</t>
-  </si>
-  <si>
     <t>Data audit log</t>
-  </si>
-  <si>
-    <t>数据审计日志</t>
   </si>
 </sst>
 </file>
@@ -4244,7 +4364,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L423"/>
+  <dimension ref="A1:L483"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4772,7 +4892,7 @@
         <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s">
         <v>68</v>
@@ -4792,13 +4912,13 @@
         <v>64</v>
       </c>
       <c r="H26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
         <v>94</v>
-      </c>
-      <c r="I26" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" t="s">
-        <v>95</v>
       </c>
       <c r="K26" t="s">
         <v>68</v>
@@ -4818,13 +4938,13 @@
         <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s">
         <v>70</v>
       </c>
       <c r="J27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s">
         <v>68</v>
@@ -4844,13 +4964,13 @@
         <v>64</v>
       </c>
       <c r="H28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" t="s">
         <v>97</v>
-      </c>
-      <c r="I28" t="s">
-        <v>66</v>
-      </c>
-      <c r="J28" t="s">
-        <v>98</v>
       </c>
       <c r="K28" t="s">
         <v>68</v>
@@ -4870,13 +4990,13 @@
         <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I29" t="s">
         <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K29" t="s">
         <v>68</v>
@@ -4896,13 +5016,13 @@
         <v>64</v>
       </c>
       <c r="H30" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" t="s">
         <v>100</v>
-      </c>
-      <c r="I30" t="s">
-        <v>66</v>
-      </c>
-      <c r="J30" t="s">
-        <v>101</v>
       </c>
       <c r="K30" t="s">
         <v>68</v>
@@ -4922,13 +5042,13 @@
         <v>64</v>
       </c>
       <c r="H31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" t="s">
         <v>70</v>
       </c>
       <c r="J31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s">
         <v>68</v>
@@ -4948,13 +5068,13 @@
         <v>64</v>
       </c>
       <c r="H32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" t="s">
         <v>103</v>
-      </c>
-      <c r="I32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J32" t="s">
-        <v>104</v>
       </c>
       <c r="K32" t="s">
         <v>68</v>
@@ -4974,13 +5094,13 @@
         <v>64</v>
       </c>
       <c r="H33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" t="s">
         <v>70</v>
       </c>
       <c r="J33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K33" t="s">
         <v>68</v>
@@ -5000,13 +5120,13 @@
         <v>64</v>
       </c>
       <c r="H34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" t="s">
         <v>106</v>
-      </c>
-      <c r="I34" t="s">
-        <v>66</v>
-      </c>
-      <c r="J34" t="s">
-        <v>107</v>
       </c>
       <c r="K34" t="s">
         <v>68</v>
@@ -5026,13 +5146,13 @@
         <v>64</v>
       </c>
       <c r="H35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" t="s">
         <v>70</v>
       </c>
       <c r="J35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K35" t="s">
         <v>68</v>
@@ -5052,13 +5172,13 @@
         <v>64</v>
       </c>
       <c r="H36" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
         <v>109</v>
-      </c>
-      <c r="I36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J36" t="s">
-        <v>110</v>
       </c>
       <c r="K36" t="s">
         <v>68</v>
@@ -5078,13 +5198,13 @@
         <v>64</v>
       </c>
       <c r="H37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I37" t="s">
         <v>70</v>
       </c>
       <c r="J37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K37" t="s">
         <v>68</v>
@@ -5104,13 +5224,13 @@
         <v>64</v>
       </c>
       <c r="H38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" t="s">
         <v>112</v>
-      </c>
-      <c r="I38" t="s">
-        <v>66</v>
-      </c>
-      <c r="J38" t="s">
-        <v>113</v>
       </c>
       <c r="K38" t="s">
         <v>68</v>
@@ -5130,13 +5250,13 @@
         <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I39" t="s">
         <v>70</v>
       </c>
       <c r="J39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K39" t="s">
         <v>68</v>
@@ -5156,13 +5276,13 @@
         <v>64</v>
       </c>
       <c r="H40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" t="s">
         <v>115</v>
-      </c>
-      <c r="I40" t="s">
-        <v>66</v>
-      </c>
-      <c r="J40" t="s">
-        <v>116</v>
       </c>
       <c r="K40" t="s">
         <v>68</v>
@@ -5182,13 +5302,13 @@
         <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I41" t="s">
         <v>70</v>
       </c>
       <c r="J41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K41" t="s">
         <v>68</v>
@@ -5208,13 +5328,13 @@
         <v>64</v>
       </c>
       <c r="H42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42" t="s">
         <v>118</v>
-      </c>
-      <c r="I42" t="s">
-        <v>66</v>
-      </c>
-      <c r="J42" t="s">
-        <v>95</v>
       </c>
       <c r="K42" t="s">
         <v>68</v>
@@ -5234,13 +5354,13 @@
         <v>64</v>
       </c>
       <c r="H43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" t="s">
         <v>118</v>
-      </c>
-      <c r="I43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J43" t="s">
-        <v>96</v>
       </c>
       <c r="K43" t="s">
         <v>68</v>
@@ -5266,7 +5386,7 @@
         <v>66</v>
       </c>
       <c r="J44" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K44" t="s">
         <v>68</v>
@@ -5292,7 +5412,7 @@
         <v>70</v>
       </c>
       <c r="J45" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K45" t="s">
         <v>68</v>
@@ -5312,13 +5432,13 @@
         <v>64</v>
       </c>
       <c r="H46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I46" t="s">
         <v>66</v>
       </c>
       <c r="J46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K46" t="s">
         <v>68</v>
@@ -5338,13 +5458,13 @@
         <v>64</v>
       </c>
       <c r="H47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I47" t="s">
         <v>70</v>
       </c>
       <c r="J47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K47" t="s">
         <v>68</v>
@@ -5364,13 +5484,13 @@
         <v>64</v>
       </c>
       <c r="H48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
         <v>66</v>
       </c>
       <c r="J48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K48" t="s">
         <v>68</v>
@@ -5390,7 +5510,7 @@
         <v>64</v>
       </c>
       <c r="H49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
         <v>70</v>
@@ -5448,7 +5568,7 @@
         <v>70</v>
       </c>
       <c r="J51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s">
         <v>68</v>
@@ -5468,13 +5588,13 @@
         <v>64</v>
       </c>
       <c r="H52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I52" t="s">
         <v>66</v>
       </c>
       <c r="J52" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s">
         <v>68</v>
@@ -5494,13 +5614,13 @@
         <v>64</v>
       </c>
       <c r="H53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I53" t="s">
         <v>70</v>
       </c>
       <c r="J53" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="K53" t="s">
         <v>68</v>
@@ -5520,13 +5640,13 @@
         <v>64</v>
       </c>
       <c r="H54" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I54" t="s">
         <v>66</v>
       </c>
       <c r="J54" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s">
         <v>68</v>
@@ -5546,13 +5666,13 @@
         <v>64</v>
       </c>
       <c r="H55" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I55" t="s">
         <v>70</v>
       </c>
       <c r="J55" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="K55" t="s">
         <v>68</v>
@@ -5572,13 +5692,13 @@
         <v>64</v>
       </c>
       <c r="H56" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I56" t="s">
         <v>66</v>
       </c>
       <c r="J56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s">
         <v>68</v>
@@ -5598,13 +5718,13 @@
         <v>64</v>
       </c>
       <c r="H57" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I57" t="s">
         <v>70</v>
       </c>
       <c r="J57" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K57" t="s">
         <v>68</v>
@@ -5624,13 +5744,13 @@
         <v>64</v>
       </c>
       <c r="H58" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I58" t="s">
         <v>66</v>
       </c>
       <c r="J58" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K58" t="s">
         <v>68</v>
@@ -5650,13 +5770,13 @@
         <v>64</v>
       </c>
       <c r="H59" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I59" t="s">
         <v>70</v>
       </c>
       <c r="J59" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K59" t="s">
         <v>68</v>
@@ -5676,13 +5796,13 @@
         <v>64</v>
       </c>
       <c r="H60" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I60" t="s">
         <v>66</v>
       </c>
       <c r="J60" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K60" t="s">
         <v>68</v>
@@ -5702,13 +5822,13 @@
         <v>64</v>
       </c>
       <c r="H61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I61" t="s">
         <v>70</v>
       </c>
       <c r="J61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K61" t="s">
         <v>68</v>
@@ -5725,16 +5845,16 @@
         <v>63</v>
       </c>
       <c r="G62" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H62" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I62" t="s">
         <v>66</v>
       </c>
       <c r="J62" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="K62" t="s">
         <v>68</v>
@@ -5751,16 +5871,16 @@
         <v>63</v>
       </c>
       <c r="G63" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H63" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I63" t="s">
         <v>70</v>
       </c>
       <c r="J63" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="K63" t="s">
         <v>68</v>
@@ -5777,16 +5897,16 @@
         <v>63</v>
       </c>
       <c r="G64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" t="s">
+        <v>141</v>
+      </c>
+      <c r="I64" t="s">
+        <v>66</v>
+      </c>
+      <c r="J64" t="s">
         <v>142</v>
-      </c>
-      <c r="H64" t="s">
-        <v>144</v>
-      </c>
-      <c r="I64" t="s">
-        <v>66</v>
-      </c>
-      <c r="J64" t="s">
-        <v>145</v>
       </c>
       <c r="K64" t="s">
         <v>68</v>
@@ -5803,16 +5923,16 @@
         <v>63</v>
       </c>
       <c r="G65" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I65" t="s">
         <v>70</v>
       </c>
       <c r="J65" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K65" t="s">
         <v>68</v>
@@ -5829,16 +5949,16 @@
         <v>63</v>
       </c>
       <c r="G66" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I66" t="s">
         <v>66</v>
       </c>
       <c r="J66" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K66" t="s">
         <v>68</v>
@@ -5855,16 +5975,16 @@
         <v>63</v>
       </c>
       <c r="G67" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H67" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I67" t="s">
         <v>70</v>
       </c>
       <c r="J67" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K67" t="s">
         <v>68</v>
@@ -5881,16 +6001,16 @@
         <v>63</v>
       </c>
       <c r="G68" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H68" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I68" t="s">
         <v>66</v>
       </c>
       <c r="J68" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="K68" t="s">
         <v>68</v>
@@ -5907,16 +6027,16 @@
         <v>63</v>
       </c>
       <c r="G69" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H69" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I69" t="s">
         <v>70</v>
       </c>
       <c r="J69" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="K69" t="s">
         <v>68</v>
@@ -5933,16 +6053,16 @@
         <v>63</v>
       </c>
       <c r="G70" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H70" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I70" t="s">
         <v>66</v>
       </c>
       <c r="J70" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K70" t="s">
         <v>68</v>
@@ -5959,16 +6079,16 @@
         <v>63</v>
       </c>
       <c r="G71" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H71" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I71" t="s">
         <v>70</v>
       </c>
       <c r="J71" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K71" t="s">
         <v>68</v>
@@ -5985,16 +6105,16 @@
         <v>63</v>
       </c>
       <c r="G72" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H72" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I72" t="s">
         <v>66</v>
       </c>
       <c r="J72" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="K72" t="s">
         <v>68</v>
@@ -6011,16 +6131,16 @@
         <v>63</v>
       </c>
       <c r="G73" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H73" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I73" t="s">
         <v>70</v>
       </c>
       <c r="J73" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K73" t="s">
         <v>68</v>
@@ -6037,16 +6157,16 @@
         <v>63</v>
       </c>
       <c r="G74" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H74" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I74" t="s">
         <v>66</v>
       </c>
       <c r="J74" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="K74" t="s">
         <v>68</v>
@@ -6063,16 +6183,16 @@
         <v>63</v>
       </c>
       <c r="G75" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H75" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I75" t="s">
         <v>70</v>
       </c>
       <c r="J75" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="K75" t="s">
         <v>68</v>
@@ -6089,16 +6209,16 @@
         <v>63</v>
       </c>
       <c r="G76" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H76" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I76" t="s">
         <v>66</v>
       </c>
       <c r="J76" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K76" t="s">
         <v>68</v>
@@ -6115,16 +6235,16 @@
         <v>63</v>
       </c>
       <c r="G77" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="H77" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I77" t="s">
         <v>70</v>
       </c>
       <c r="J77" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K77" t="s">
         <v>68</v>
@@ -6141,16 +6261,16 @@
         <v>63</v>
       </c>
       <c r="G78" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H78" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I78" t="s">
         <v>66</v>
       </c>
       <c r="J78" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="K78" t="s">
         <v>68</v>
@@ -6167,16 +6287,16 @@
         <v>63</v>
       </c>
       <c r="G79" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H79" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I79" t="s">
         <v>70</v>
       </c>
       <c r="J79" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="K79" t="s">
         <v>68</v>
@@ -6193,16 +6313,16 @@
         <v>63</v>
       </c>
       <c r="G80" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H80" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I80" t="s">
         <v>66</v>
       </c>
       <c r="J80" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K80" t="s">
         <v>68</v>
@@ -6219,16 +6339,16 @@
         <v>63</v>
       </c>
       <c r="G81" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H81" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I81" t="s">
         <v>70</v>
       </c>
       <c r="J81" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K81" t="s">
         <v>68</v>
@@ -6245,16 +6365,16 @@
         <v>63</v>
       </c>
       <c r="G82" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H82" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I82" t="s">
         <v>66</v>
       </c>
       <c r="J82" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K82" t="s">
         <v>68</v>
@@ -6271,16 +6391,16 @@
         <v>63</v>
       </c>
       <c r="G83" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H83" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I83" t="s">
         <v>70</v>
       </c>
       <c r="J83" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K83" t="s">
         <v>68</v>
@@ -6297,16 +6417,16 @@
         <v>63</v>
       </c>
       <c r="G84" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H84" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I84" t="s">
         <v>66</v>
       </c>
       <c r="J84" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K84" t="s">
         <v>68</v>
@@ -6323,16 +6443,16 @@
         <v>63</v>
       </c>
       <c r="G85" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H85" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I85" t="s">
         <v>70</v>
       </c>
       <c r="J85" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K85" t="s">
         <v>68</v>
@@ -6349,16 +6469,16 @@
         <v>63</v>
       </c>
       <c r="G86" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H86" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I86" t="s">
         <v>66</v>
       </c>
       <c r="J86" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K86" t="s">
         <v>68</v>
@@ -6375,16 +6495,16 @@
         <v>63</v>
       </c>
       <c r="G87" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H87" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I87" t="s">
         <v>70</v>
       </c>
       <c r="J87" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K87" t="s">
         <v>68</v>
@@ -6401,16 +6521,16 @@
         <v>63</v>
       </c>
       <c r="G88" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H88" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I88" t="s">
         <v>66</v>
       </c>
       <c r="J88" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s">
         <v>68</v>
@@ -6427,16 +6547,16 @@
         <v>63</v>
       </c>
       <c r="G89" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H89" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I89" t="s">
         <v>70</v>
       </c>
       <c r="J89" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="K89" t="s">
         <v>68</v>
@@ -6453,16 +6573,16 @@
         <v>63</v>
       </c>
       <c r="G90" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H90" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I90" t="s">
         <v>66</v>
       </c>
       <c r="J90" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="K90" t="s">
         <v>68</v>
@@ -6479,16 +6599,16 @@
         <v>63</v>
       </c>
       <c r="G91" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H91" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I91" t="s">
         <v>70</v>
       </c>
       <c r="J91" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="K91" t="s">
         <v>68</v>
@@ -6505,16 +6625,16 @@
         <v>63</v>
       </c>
       <c r="G92" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H92" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I92" t="s">
         <v>66</v>
       </c>
       <c r="J92" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="K92" t="s">
         <v>68</v>
@@ -6531,16 +6651,16 @@
         <v>63</v>
       </c>
       <c r="G93" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H93" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I93" t="s">
         <v>70</v>
       </c>
       <c r="J93" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="K93" t="s">
         <v>68</v>
@@ -6557,16 +6677,16 @@
         <v>63</v>
       </c>
       <c r="G94" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H94" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="I94" t="s">
         <v>66</v>
       </c>
       <c r="J94" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="K94" t="s">
         <v>68</v>
@@ -6583,16 +6703,16 @@
         <v>63</v>
       </c>
       <c r="G95" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H95" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="I95" t="s">
         <v>70</v>
       </c>
       <c r="J95" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K95" t="s">
         <v>68</v>
@@ -6609,16 +6729,16 @@
         <v>63</v>
       </c>
       <c r="G96" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H96" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I96" t="s">
         <v>66</v>
       </c>
       <c r="J96" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K96" t="s">
         <v>68</v>
@@ -6635,16 +6755,16 @@
         <v>63</v>
       </c>
       <c r="G97" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H97" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I97" t="s">
         <v>70</v>
       </c>
       <c r="J97" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K97" t="s">
         <v>68</v>
@@ -6661,16 +6781,16 @@
         <v>63</v>
       </c>
       <c r="G98" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H98" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I98" t="s">
         <v>66</v>
       </c>
       <c r="J98" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K98" t="s">
         <v>68</v>
@@ -6687,16 +6807,16 @@
         <v>63</v>
       </c>
       <c r="G99" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H99" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I99" t="s">
         <v>70</v>
       </c>
       <c r="J99" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="K99" t="s">
         <v>68</v>
@@ -6713,16 +6833,16 @@
         <v>63</v>
       </c>
       <c r="G100" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H100" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I100" t="s">
         <v>66</v>
       </c>
       <c r="J100" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K100" t="s">
         <v>68</v>
@@ -6739,16 +6859,16 @@
         <v>63</v>
       </c>
       <c r="G101" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H101" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I101" t="s">
         <v>70</v>
       </c>
       <c r="J101" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="K101" t="s">
         <v>68</v>
@@ -6765,16 +6885,16 @@
         <v>63</v>
       </c>
       <c r="G102" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H102" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I102" t="s">
         <v>66</v>
       </c>
       <c r="J102" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K102" t="s">
         <v>68</v>
@@ -6791,16 +6911,16 @@
         <v>63</v>
       </c>
       <c r="G103" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H103" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I103" t="s">
         <v>70</v>
       </c>
       <c r="J103" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K103" t="s">
         <v>68</v>
@@ -6817,16 +6937,16 @@
         <v>63</v>
       </c>
       <c r="G104" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H104" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I104" t="s">
         <v>66</v>
       </c>
       <c r="J104" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K104" t="s">
         <v>68</v>
@@ -6843,16 +6963,16 @@
         <v>63</v>
       </c>
       <c r="G105" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H105" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I105" t="s">
         <v>70</v>
       </c>
       <c r="J105" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K105" t="s">
         <v>68</v>
@@ -6869,16 +6989,16 @@
         <v>63</v>
       </c>
       <c r="G106" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H106" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I106" t="s">
         <v>66</v>
       </c>
       <c r="J106" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K106" t="s">
         <v>68</v>
@@ -6895,16 +7015,16 @@
         <v>63</v>
       </c>
       <c r="G107" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H107" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I107" t="s">
         <v>70</v>
       </c>
       <c r="J107" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K107" t="s">
         <v>68</v>
@@ -6921,16 +7041,16 @@
         <v>63</v>
       </c>
       <c r="G108" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H108" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I108" t="s">
         <v>66</v>
       </c>
       <c r="J108" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K108" t="s">
         <v>68</v>
@@ -6947,16 +7067,16 @@
         <v>63</v>
       </c>
       <c r="G109" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H109" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I109" t="s">
         <v>70</v>
       </c>
       <c r="J109" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K109" t="s">
         <v>68</v>
@@ -6973,16 +7093,16 @@
         <v>63</v>
       </c>
       <c r="G110" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H110" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I110" t="s">
         <v>66</v>
       </c>
       <c r="J110" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="K110" t="s">
         <v>68</v>
@@ -6999,16 +7119,16 @@
         <v>63</v>
       </c>
       <c r="G111" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H111" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I111" t="s">
         <v>70</v>
       </c>
       <c r="J111" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K111" t="s">
         <v>68</v>
@@ -7025,16 +7145,16 @@
         <v>63</v>
       </c>
       <c r="G112" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H112" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I112" t="s">
         <v>66</v>
       </c>
       <c r="J112" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="K112" t="s">
         <v>68</v>
@@ -7051,16 +7171,16 @@
         <v>63</v>
       </c>
       <c r="G113" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H113" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I113" t="s">
         <v>70</v>
       </c>
       <c r="J113" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="K113" t="s">
         <v>68</v>
@@ -7077,16 +7197,16 @@
         <v>63</v>
       </c>
       <c r="G114" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H114" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="I114" t="s">
         <v>66</v>
       </c>
       <c r="J114" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="K114" t="s">
         <v>68</v>
@@ -7103,16 +7223,16 @@
         <v>63</v>
       </c>
       <c r="G115" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H115" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="I115" t="s">
         <v>70</v>
       </c>
       <c r="J115" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K115" t="s">
         <v>68</v>
@@ -7129,16 +7249,16 @@
         <v>63</v>
       </c>
       <c r="G116" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H116" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I116" t="s">
         <v>66</v>
       </c>
       <c r="J116" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="K116" t="s">
         <v>68</v>
@@ -7155,16 +7275,16 @@
         <v>63</v>
       </c>
       <c r="G117" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H117" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I117" t="s">
         <v>70</v>
       </c>
       <c r="J117" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="K117" t="s">
         <v>68</v>
@@ -7181,16 +7301,16 @@
         <v>63</v>
       </c>
       <c r="G118" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H118" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I118" t="s">
         <v>66</v>
       </c>
       <c r="J118" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K118" t="s">
         <v>68</v>
@@ -7207,16 +7327,16 @@
         <v>63</v>
       </c>
       <c r="G119" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H119" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I119" t="s">
         <v>70</v>
       </c>
       <c r="J119" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="K119" t="s">
         <v>68</v>
@@ -7233,16 +7353,16 @@
         <v>63</v>
       </c>
       <c r="G120" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H120" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="I120" t="s">
         <v>66</v>
       </c>
       <c r="J120" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K120" t="s">
         <v>68</v>
@@ -7259,16 +7379,16 @@
         <v>63</v>
       </c>
       <c r="G121" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H121" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="I121" t="s">
         <v>70</v>
       </c>
       <c r="J121" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="K121" t="s">
         <v>68</v>
@@ -7285,16 +7405,16 @@
         <v>63</v>
       </c>
       <c r="G122" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H122" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="I122" t="s">
         <v>66</v>
       </c>
       <c r="J122" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="K122" t="s">
         <v>68</v>
@@ -7311,16 +7431,16 @@
         <v>63</v>
       </c>
       <c r="G123" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H123" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="I123" t="s">
         <v>70</v>
       </c>
       <c r="J123" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="K123" t="s">
         <v>68</v>
@@ -7337,16 +7457,16 @@
         <v>63</v>
       </c>
       <c r="G124" t="s">
+        <v>157</v>
+      </c>
+      <c r="H124" t="s">
         <v>213</v>
       </c>
-      <c r="H124" t="s">
-        <v>226</v>
-      </c>
       <c r="I124" t="s">
         <v>66</v>
       </c>
       <c r="J124" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="K124" t="s">
         <v>68</v>
@@ -7363,16 +7483,16 @@
         <v>63</v>
       </c>
       <c r="G125" t="s">
+        <v>157</v>
+      </c>
+      <c r="H125" t="s">
         <v>213</v>
       </c>
-      <c r="H125" t="s">
-        <v>226</v>
-      </c>
       <c r="I125" t="s">
         <v>70</v>
       </c>
       <c r="J125" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="K125" t="s">
         <v>68</v>
@@ -7389,16 +7509,16 @@
         <v>63</v>
       </c>
       <c r="G126" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H126" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="I126" t="s">
         <v>66</v>
       </c>
       <c r="J126" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="K126" t="s">
         <v>68</v>
@@ -7415,16 +7535,16 @@
         <v>63</v>
       </c>
       <c r="G127" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H127" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="I127" t="s">
         <v>70</v>
       </c>
       <c r="J127" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="K127" t="s">
         <v>68</v>
@@ -7441,16 +7561,16 @@
         <v>63</v>
       </c>
       <c r="G128" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H128" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I128" t="s">
         <v>66</v>
       </c>
       <c r="J128" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="K128" t="s">
         <v>68</v>
@@ -7467,16 +7587,16 @@
         <v>63</v>
       </c>
       <c r="G129" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H129" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I129" t="s">
         <v>70</v>
       </c>
       <c r="J129" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="K129" t="s">
         <v>68</v>
@@ -7493,16 +7613,16 @@
         <v>63</v>
       </c>
       <c r="G130" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H130" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="I130" t="s">
         <v>66</v>
       </c>
       <c r="J130" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="K130" t="s">
         <v>68</v>
@@ -7519,16 +7639,16 @@
         <v>63</v>
       </c>
       <c r="G131" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H131" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="I131" t="s">
         <v>70</v>
       </c>
       <c r="J131" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="K131" t="s">
         <v>68</v>
@@ -7545,16 +7665,16 @@
         <v>63</v>
       </c>
       <c r="G132" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H132" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I132" t="s">
         <v>66</v>
       </c>
       <c r="J132" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K132" t="s">
         <v>68</v>
@@ -7571,16 +7691,16 @@
         <v>63</v>
       </c>
       <c r="G133" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H133" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I133" t="s">
         <v>70</v>
       </c>
       <c r="J133" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="K133" t="s">
         <v>68</v>
@@ -7597,16 +7717,16 @@
         <v>63</v>
       </c>
       <c r="G134" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H134" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="I134" t="s">
         <v>66</v>
       </c>
       <c r="J134" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="K134" t="s">
         <v>68</v>
@@ -7623,16 +7743,16 @@
         <v>63</v>
       </c>
       <c r="G135" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H135" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="I135" t="s">
         <v>70</v>
       </c>
       <c r="J135" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="K135" t="s">
         <v>68</v>
@@ -7649,16 +7769,16 @@
         <v>63</v>
       </c>
       <c r="G136" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H136" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="I136" t="s">
         <v>66</v>
       </c>
       <c r="J136" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="K136" t="s">
         <v>68</v>
@@ -7675,16 +7795,16 @@
         <v>63</v>
       </c>
       <c r="G137" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H137" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="I137" t="s">
         <v>70</v>
       </c>
       <c r="J137" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="K137" t="s">
         <v>68</v>
@@ -7701,16 +7821,16 @@
         <v>63</v>
       </c>
       <c r="G138" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H138" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="I138" t="s">
         <v>66</v>
       </c>
       <c r="J138" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="K138" t="s">
         <v>68</v>
@@ -7727,16 +7847,16 @@
         <v>63</v>
       </c>
       <c r="G139" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H139" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="I139" t="s">
         <v>70</v>
       </c>
       <c r="J139" t="s">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="K139" t="s">
         <v>68</v>
@@ -7753,16 +7873,16 @@
         <v>63</v>
       </c>
       <c r="G140" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H140" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I140" t="s">
         <v>66</v>
       </c>
       <c r="J140" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K140" t="s">
         <v>68</v>
@@ -7779,16 +7899,16 @@
         <v>63</v>
       </c>
       <c r="G141" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H141" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I141" t="s">
         <v>70</v>
       </c>
       <c r="J141" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K141" t="s">
         <v>68</v>
@@ -7805,16 +7925,16 @@
         <v>63</v>
       </c>
       <c r="G142" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H142" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I142" t="s">
         <v>66</v>
       </c>
       <c r="J142" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K142" t="s">
         <v>68</v>
@@ -7831,16 +7951,16 @@
         <v>63</v>
       </c>
       <c r="G143" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H143" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I143" t="s">
         <v>70</v>
       </c>
       <c r="J143" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="K143" t="s">
         <v>68</v>
@@ -7857,16 +7977,16 @@
         <v>63</v>
       </c>
       <c r="G144" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H144" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I144" t="s">
         <v>66</v>
       </c>
       <c r="J144" t="s">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="K144" t="s">
         <v>68</v>
@@ -7883,16 +8003,16 @@
         <v>63</v>
       </c>
       <c r="G145" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H145" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I145" t="s">
         <v>70</v>
       </c>
       <c r="J145" t="s">
-        <v>254</v>
+        <v>86</v>
       </c>
       <c r="K145" t="s">
         <v>68</v>
@@ -7909,16 +8029,16 @@
         <v>63</v>
       </c>
       <c r="G146" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H146" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="I146" t="s">
         <v>66</v>
       </c>
       <c r="J146" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="K146" t="s">
         <v>68</v>
@@ -7935,16 +8055,16 @@
         <v>63</v>
       </c>
       <c r="G147" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H147" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="I147" t="s">
         <v>70</v>
       </c>
       <c r="J147" t="s">
-        <v>257</v>
+        <v>90</v>
       </c>
       <c r="K147" t="s">
         <v>68</v>
@@ -7961,16 +8081,16 @@
         <v>63</v>
       </c>
       <c r="G148" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H148" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="I148" t="s">
         <v>66</v>
       </c>
       <c r="J148" t="s">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="K148" t="s">
         <v>68</v>
@@ -7987,16 +8107,16 @@
         <v>63</v>
       </c>
       <c r="G149" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H149" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="I149" t="s">
         <v>70</v>
       </c>
       <c r="J149" t="s">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="K149" t="s">
         <v>68</v>
@@ -8013,16 +8133,16 @@
         <v>63</v>
       </c>
       <c r="G150" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H150" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="I150" t="s">
         <v>66</v>
       </c>
       <c r="J150" t="s">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c r="K150" t="s">
         <v>68</v>
@@ -8039,16 +8159,16 @@
         <v>63</v>
       </c>
       <c r="G151" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H151" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="I151" t="s">
         <v>70</v>
       </c>
       <c r="J151" t="s">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="K151" t="s">
         <v>68</v>
@@ -8065,16 +8185,16 @@
         <v>63</v>
       </c>
       <c r="G152" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H152" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="I152" t="s">
         <v>66</v>
       </c>
       <c r="J152" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="K152" t="s">
         <v>68</v>
@@ -8091,16 +8211,16 @@
         <v>63</v>
       </c>
       <c r="G153" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H153" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="I153" t="s">
         <v>70</v>
       </c>
       <c r="J153" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="K153" t="s">
         <v>68</v>
@@ -8117,16 +8237,16 @@
         <v>63</v>
       </c>
       <c r="G154" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H154" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="I154" t="s">
         <v>66</v>
       </c>
       <c r="J154" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="K154" t="s">
         <v>68</v>
@@ -8143,16 +8263,16 @@
         <v>63</v>
       </c>
       <c r="G155" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H155" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="I155" t="s">
         <v>70</v>
       </c>
       <c r="J155" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="K155" t="s">
         <v>68</v>
@@ -8169,16 +8289,16 @@
         <v>63</v>
       </c>
       <c r="G156" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H156" t="s">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="I156" t="s">
         <v>66</v>
       </c>
       <c r="J156" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="K156" t="s">
         <v>68</v>
@@ -8195,16 +8315,16 @@
         <v>63</v>
       </c>
       <c r="G157" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H157" t="s">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="I157" t="s">
         <v>70</v>
       </c>
       <c r="J157" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="K157" t="s">
         <v>68</v>
@@ -8221,16 +8341,16 @@
         <v>63</v>
       </c>
       <c r="G158" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="H158" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="I158" t="s">
         <v>66</v>
       </c>
       <c r="J158" t="s">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c r="K158" t="s">
         <v>68</v>
@@ -8247,16 +8367,16 @@
         <v>63</v>
       </c>
       <c r="G159" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="H159" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="I159" t="s">
         <v>70</v>
       </c>
       <c r="J159" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="K159" t="s">
         <v>68</v>
@@ -8273,16 +8393,16 @@
         <v>63</v>
       </c>
       <c r="G160" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="H160" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="I160" t="s">
         <v>66</v>
       </c>
       <c r="J160" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="K160" t="s">
         <v>68</v>
@@ -8299,16 +8419,16 @@
         <v>63</v>
       </c>
       <c r="G161" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="H161" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="I161" t="s">
         <v>70</v>
       </c>
       <c r="J161" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="K161" t="s">
         <v>68</v>
@@ -8325,16 +8445,16 @@
         <v>63</v>
       </c>
       <c r="G162" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="H162" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="I162" t="s">
         <v>66</v>
       </c>
       <c r="J162" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K162" t="s">
         <v>68</v>
@@ -8351,16 +8471,16 @@
         <v>63</v>
       </c>
       <c r="G163" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="H163" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="I163" t="s">
         <v>70</v>
       </c>
       <c r="J163" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="K163" t="s">
         <v>68</v>
@@ -8377,16 +8497,16 @@
         <v>63</v>
       </c>
       <c r="G164" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="H164" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="I164" t="s">
         <v>66</v>
       </c>
       <c r="J164" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="K164" t="s">
         <v>68</v>
@@ -8403,16 +8523,16 @@
         <v>63</v>
       </c>
       <c r="G165" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="H165" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="I165" t="s">
         <v>70</v>
       </c>
       <c r="J165" t="s">
-        <v>279</v>
+        <v>123</v>
       </c>
       <c r="K165" t="s">
         <v>68</v>
@@ -8429,16 +8549,16 @@
         <v>63</v>
       </c>
       <c r="G166" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H166" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="I166" t="s">
         <v>66</v>
       </c>
       <c r="J166" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K166" t="s">
         <v>68</v>
@@ -8455,16 +8575,16 @@
         <v>63</v>
       </c>
       <c r="G167" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H167" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="I167" t="s">
         <v>70</v>
       </c>
       <c r="J167" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="K167" t="s">
         <v>68</v>
@@ -8481,16 +8601,16 @@
         <v>63</v>
       </c>
       <c r="G168" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H168" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="I168" t="s">
         <v>66</v>
       </c>
       <c r="J168" t="s">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="K168" t="s">
         <v>68</v>
@@ -8507,16 +8627,16 @@
         <v>63</v>
       </c>
       <c r="G169" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H169" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="I169" t="s">
         <v>70</v>
       </c>
       <c r="J169" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="K169" t="s">
         <v>68</v>
@@ -8533,16 +8653,16 @@
         <v>63</v>
       </c>
       <c r="G170" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H170" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="I170" t="s">
         <v>66</v>
       </c>
       <c r="J170" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="K170" t="s">
         <v>68</v>
@@ -8559,16 +8679,16 @@
         <v>63</v>
       </c>
       <c r="G171" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H171" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="I171" t="s">
         <v>70</v>
       </c>
       <c r="J171" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="K171" t="s">
         <v>68</v>
@@ -8585,16 +8705,16 @@
         <v>63</v>
       </c>
       <c r="G172" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H172" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="I172" t="s">
         <v>66</v>
       </c>
       <c r="J172" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="K172" t="s">
         <v>68</v>
@@ -8611,16 +8731,16 @@
         <v>63</v>
       </c>
       <c r="G173" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H173" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="I173" t="s">
         <v>70</v>
       </c>
       <c r="J173" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="K173" t="s">
         <v>68</v>
@@ -8637,16 +8757,16 @@
         <v>63</v>
       </c>
       <c r="G174" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H174" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="I174" t="s">
         <v>66</v>
       </c>
       <c r="J174" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="K174" t="s">
         <v>68</v>
@@ -8663,16 +8783,16 @@
         <v>63</v>
       </c>
       <c r="G175" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H175" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="I175" t="s">
         <v>70</v>
       </c>
       <c r="J175" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="K175" t="s">
         <v>68</v>
@@ -8689,16 +8809,16 @@
         <v>63</v>
       </c>
       <c r="G176" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H176" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="I176" t="s">
         <v>66</v>
       </c>
       <c r="J176" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="K176" t="s">
         <v>68</v>
@@ -8715,16 +8835,16 @@
         <v>63</v>
       </c>
       <c r="G177" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H177" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="I177" t="s">
         <v>70</v>
       </c>
       <c r="J177" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="K177" t="s">
         <v>68</v>
@@ -8741,16 +8861,16 @@
         <v>63</v>
       </c>
       <c r="G178" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H178" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="I178" t="s">
         <v>66</v>
       </c>
       <c r="J178" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="K178" t="s">
         <v>68</v>
@@ -8767,16 +8887,16 @@
         <v>63</v>
       </c>
       <c r="G179" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H179" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="I179" t="s">
         <v>70</v>
       </c>
       <c r="J179" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="K179" t="s">
         <v>68</v>
@@ -8793,16 +8913,16 @@
         <v>63</v>
       </c>
       <c r="G180" t="s">
+        <v>252</v>
+      </c>
+      <c r="H180" t="s">
         <v>272</v>
       </c>
-      <c r="H180" t="s">
-        <v>296</v>
-      </c>
       <c r="I180" t="s">
         <v>66</v>
       </c>
       <c r="J180" t="s">
-        <v>116</v>
+        <v>273</v>
       </c>
       <c r="K180" t="s">
         <v>68</v>
@@ -8819,16 +8939,16 @@
         <v>63</v>
       </c>
       <c r="G181" t="s">
+        <v>252</v>
+      </c>
+      <c r="H181" t="s">
         <v>272</v>
       </c>
-      <c r="H181" t="s">
-        <v>296</v>
-      </c>
       <c r="I181" t="s">
         <v>70</v>
       </c>
       <c r="J181" t="s">
-        <v>117</v>
+        <v>274</v>
       </c>
       <c r="K181" t="s">
         <v>68</v>
@@ -8845,16 +8965,16 @@
         <v>63</v>
       </c>
       <c r="G182" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H182" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="I182" t="s">
         <v>66</v>
       </c>
       <c r="J182" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="K182" t="s">
         <v>68</v>
@@ -8871,16 +8991,16 @@
         <v>63</v>
       </c>
       <c r="G183" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H183" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="I183" t="s">
         <v>70</v>
       </c>
       <c r="J183" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="K183" t="s">
         <v>68</v>
@@ -8897,16 +9017,16 @@
         <v>63</v>
       </c>
       <c r="G184" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H184" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="I184" t="s">
         <v>66</v>
       </c>
       <c r="J184" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="K184" t="s">
         <v>68</v>
@@ -8923,16 +9043,16 @@
         <v>63</v>
       </c>
       <c r="G185" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H185" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="I185" t="s">
         <v>70</v>
       </c>
       <c r="J185" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="K185" t="s">
         <v>68</v>
@@ -8949,16 +9069,16 @@
         <v>63</v>
       </c>
       <c r="G186" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H186" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="I186" t="s">
         <v>66</v>
       </c>
       <c r="J186" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="K186" t="s">
         <v>68</v>
@@ -8975,16 +9095,16 @@
         <v>63</v>
       </c>
       <c r="G187" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H187" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="I187" t="s">
         <v>70</v>
       </c>
       <c r="J187" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="K187" t="s">
         <v>68</v>
@@ -9001,16 +9121,16 @@
         <v>63</v>
       </c>
       <c r="G188" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H188" t="s">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="I188" t="s">
         <v>66</v>
       </c>
       <c r="J188" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="K188" t="s">
         <v>68</v>
@@ -9027,16 +9147,16 @@
         <v>63</v>
       </c>
       <c r="G189" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H189" t="s">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="I189" t="s">
         <v>70</v>
       </c>
       <c r="J189" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="K189" t="s">
         <v>68</v>
@@ -9053,16 +9173,16 @@
         <v>63</v>
       </c>
       <c r="G190" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H190" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="I190" t="s">
         <v>66</v>
       </c>
       <c r="J190" t="s">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="K190" t="s">
         <v>68</v>
@@ -9079,16 +9199,16 @@
         <v>63</v>
       </c>
       <c r="G191" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H191" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="I191" t="s">
         <v>70</v>
       </c>
       <c r="J191" t="s">
-        <v>309</v>
+        <v>182</v>
       </c>
       <c r="K191" t="s">
         <v>68</v>
@@ -9105,16 +9225,16 @@
         <v>63</v>
       </c>
       <c r="G192" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H192" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="I192" t="s">
         <v>66</v>
       </c>
       <c r="J192" t="s">
-        <v>311</v>
+        <v>166</v>
       </c>
       <c r="K192" t="s">
         <v>68</v>
@@ -9131,16 +9251,16 @@
         <v>63</v>
       </c>
       <c r="G193" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H193" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="I193" t="s">
         <v>70</v>
       </c>
       <c r="J193" t="s">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="K193" t="s">
         <v>68</v>
@@ -9157,16 +9277,16 @@
         <v>63</v>
       </c>
       <c r="G194" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H194" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="I194" t="s">
         <v>66</v>
       </c>
       <c r="J194" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="K194" t="s">
         <v>68</v>
@@ -9183,16 +9303,16 @@
         <v>63</v>
       </c>
       <c r="G195" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H195" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="I195" t="s">
         <v>70</v>
       </c>
       <c r="J195" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="K195" t="s">
         <v>68</v>
@@ -9209,16 +9329,16 @@
         <v>63</v>
       </c>
       <c r="G196" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H196" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="I196" t="s">
         <v>66</v>
       </c>
       <c r="J196" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="K196" t="s">
         <v>68</v>
@@ -9235,16 +9355,16 @@
         <v>63</v>
       </c>
       <c r="G197" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H197" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="I197" t="s">
         <v>70</v>
       </c>
       <c r="J197" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="K197" t="s">
         <v>68</v>
@@ -9261,16 +9381,16 @@
         <v>63</v>
       </c>
       <c r="G198" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H198" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="I198" t="s">
         <v>66</v>
       </c>
       <c r="J198" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="K198" t="s">
         <v>68</v>
@@ -9287,16 +9407,16 @@
         <v>63</v>
       </c>
       <c r="G199" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H199" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="I199" t="s">
         <v>70</v>
       </c>
       <c r="J199" t="s">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="K199" t="s">
         <v>68</v>
@@ -9313,16 +9433,16 @@
         <v>63</v>
       </c>
       <c r="G200" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="H200" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="I200" t="s">
         <v>66</v>
       </c>
       <c r="J200" t="s">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="K200" t="s">
         <v>68</v>
@@ -9339,16 +9459,16 @@
         <v>63</v>
       </c>
       <c r="G201" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="H201" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="I201" t="s">
         <v>70</v>
       </c>
       <c r="J201" t="s">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="K201" t="s">
         <v>68</v>
@@ -9365,16 +9485,16 @@
         <v>63</v>
       </c>
       <c r="G202" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="H202" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="I202" t="s">
         <v>66</v>
       </c>
       <c r="J202" t="s">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="K202" t="s">
         <v>68</v>
@@ -9391,16 +9511,16 @@
         <v>63</v>
       </c>
       <c r="G203" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="H203" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="I203" t="s">
         <v>70</v>
       </c>
       <c r="J203" t="s">
-        <v>152</v>
+        <v>300</v>
       </c>
       <c r="K203" t="s">
         <v>68</v>
@@ -9417,16 +9537,16 @@
         <v>63</v>
       </c>
       <c r="G204" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="H204" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="I204" t="s">
         <v>66</v>
       </c>
       <c r="J204" t="s">
-        <v>224</v>
+        <v>302</v>
       </c>
       <c r="K204" t="s">
         <v>68</v>
@@ -9443,16 +9563,16 @@
         <v>63</v>
       </c>
       <c r="G205" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="H205" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="I205" t="s">
         <v>70</v>
       </c>
       <c r="J205" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
       <c r="K205" t="s">
         <v>68</v>
@@ -9469,16 +9589,16 @@
         <v>63</v>
       </c>
       <c r="G206" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="H206" t="s">
-        <v>326</v>
+        <v>154</v>
       </c>
       <c r="I206" t="s">
         <v>66</v>
       </c>
       <c r="J206" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="K206" t="s">
         <v>68</v>
@@ -9495,16 +9615,16 @@
         <v>63</v>
       </c>
       <c r="G207" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="H207" t="s">
-        <v>326</v>
+        <v>154</v>
       </c>
       <c r="I207" t="s">
         <v>70</v>
       </c>
       <c r="J207" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="K207" t="s">
         <v>68</v>
@@ -9521,16 +9641,16 @@
         <v>63</v>
       </c>
       <c r="G208" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="H208" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="I208" t="s">
         <v>66</v>
       </c>
       <c r="J208" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="K208" t="s">
         <v>68</v>
@@ -9547,16 +9667,16 @@
         <v>63</v>
       </c>
       <c r="G209" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="H209" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="I209" t="s">
         <v>70</v>
       </c>
       <c r="J209" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="K209" t="s">
         <v>68</v>
@@ -9573,16 +9693,16 @@
         <v>63</v>
       </c>
       <c r="G210" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H210" t="s">
-        <v>331</v>
+        <v>256</v>
       </c>
       <c r="I210" t="s">
         <v>66</v>
       </c>
       <c r="J210" t="s">
-        <v>332</v>
+        <v>85</v>
       </c>
       <c r="K210" t="s">
         <v>68</v>
@@ -9599,16 +9719,16 @@
         <v>63</v>
       </c>
       <c r="G211" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H211" t="s">
-        <v>331</v>
+        <v>256</v>
       </c>
       <c r="I211" t="s">
         <v>70</v>
       </c>
       <c r="J211" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="K211" t="s">
         <v>68</v>
@@ -9625,16 +9745,16 @@
         <v>63</v>
       </c>
       <c r="G212" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H212" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="I212" t="s">
         <v>66</v>
       </c>
       <c r="J212" t="s">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="K212" t="s">
         <v>68</v>
@@ -9651,16 +9771,16 @@
         <v>63</v>
       </c>
       <c r="G213" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H213" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="I213" t="s">
         <v>70</v>
       </c>
       <c r="J213" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="K213" t="s">
         <v>68</v>
@@ -9677,16 +9797,16 @@
         <v>63</v>
       </c>
       <c r="G214" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H214" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="I214" t="s">
         <v>66</v>
       </c>
       <c r="J214" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="K214" t="s">
         <v>68</v>
@@ -9703,16 +9823,16 @@
         <v>63</v>
       </c>
       <c r="G215" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H215" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="I215" t="s">
         <v>70</v>
       </c>
       <c r="J215" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="K215" t="s">
         <v>68</v>
@@ -9729,16 +9849,16 @@
         <v>63</v>
       </c>
       <c r="G216" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H216" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="I216" t="s">
         <v>66</v>
       </c>
       <c r="J216" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="K216" t="s">
         <v>68</v>
@@ -9755,16 +9875,16 @@
         <v>63</v>
       </c>
       <c r="G217" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H217" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="I217" t="s">
         <v>70</v>
       </c>
       <c r="J217" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="K217" t="s">
         <v>68</v>
@@ -9781,16 +9901,16 @@
         <v>63</v>
       </c>
       <c r="G218" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H218" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="I218" t="s">
         <v>66</v>
       </c>
       <c r="J218" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="K218" t="s">
         <v>68</v>
@@ -9807,16 +9927,16 @@
         <v>63</v>
       </c>
       <c r="G219" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H219" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="I219" t="s">
         <v>70</v>
       </c>
       <c r="J219" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="K219" t="s">
         <v>68</v>
@@ -9833,16 +9953,16 @@
         <v>63</v>
       </c>
       <c r="G220" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H220" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="I220" t="s">
         <v>66</v>
       </c>
       <c r="J220" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="K220" t="s">
         <v>68</v>
@@ -9859,16 +9979,16 @@
         <v>63</v>
       </c>
       <c r="G221" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H221" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="I221" t="s">
         <v>70</v>
       </c>
       <c r="J221" t="s">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c r="K221" t="s">
         <v>68</v>
@@ -9885,16 +10005,16 @@
         <v>63</v>
       </c>
       <c r="G222" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H222" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="I222" t="s">
         <v>66</v>
       </c>
       <c r="J222" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="K222" t="s">
         <v>68</v>
@@ -9911,16 +10031,16 @@
         <v>63</v>
       </c>
       <c r="G223" t="s">
+        <v>308</v>
+      </c>
+      <c r="H223" t="s">
+        <v>320</v>
+      </c>
+      <c r="I223" t="s">
+        <v>70</v>
+      </c>
+      <c r="J223" t="s">
         <v>322</v>
-      </c>
-      <c r="H223" t="s">
-        <v>343</v>
-      </c>
-      <c r="I223" t="s">
-        <v>70</v>
-      </c>
-      <c r="J223" t="s">
-        <v>246</v>
       </c>
       <c r="K223" t="s">
         <v>68</v>
@@ -9937,16 +10057,16 @@
         <v>63</v>
       </c>
       <c r="G224" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H224" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="I224" t="s">
         <v>66</v>
       </c>
       <c r="J224" t="s">
-        <v>345</v>
+        <v>106</v>
       </c>
       <c r="K224" t="s">
         <v>68</v>
@@ -9963,16 +10083,16 @@
         <v>63</v>
       </c>
       <c r="G225" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H225" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="I225" t="s">
         <v>70</v>
       </c>
       <c r="J225" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="K225" t="s">
         <v>68</v>
@@ -9989,16 +10109,16 @@
         <v>63</v>
       </c>
       <c r="G226" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H226" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="I226" t="s">
         <v>66</v>
       </c>
       <c r="J226" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="K226" t="s">
         <v>68</v>
@@ -10015,16 +10135,16 @@
         <v>63</v>
       </c>
       <c r="G227" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H227" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="I227" t="s">
         <v>70</v>
       </c>
       <c r="J227" t="s">
-        <v>249</v>
+        <v>327</v>
       </c>
       <c r="K227" t="s">
         <v>68</v>
@@ -10041,16 +10161,16 @@
         <v>63</v>
       </c>
       <c r="G228" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H228" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="I228" t="s">
         <v>66</v>
       </c>
       <c r="J228" t="s">
-        <v>113</v>
+        <v>329</v>
       </c>
       <c r="K228" t="s">
         <v>68</v>
@@ -10067,16 +10187,16 @@
         <v>63</v>
       </c>
       <c r="G229" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H229" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="I229" t="s">
         <v>70</v>
       </c>
       <c r="J229" t="s">
-        <v>114</v>
+        <v>330</v>
       </c>
       <c r="K229" t="s">
         <v>68</v>
@@ -10093,16 +10213,16 @@
         <v>63</v>
       </c>
       <c r="G230" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H230" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="I230" t="s">
         <v>66</v>
       </c>
       <c r="J230" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
       <c r="K230" t="s">
         <v>68</v>
@@ -10119,16 +10239,16 @@
         <v>63</v>
       </c>
       <c r="G231" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H231" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="I231" t="s">
         <v>70</v>
       </c>
       <c r="J231" t="s">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="K231" t="s">
         <v>68</v>
@@ -10145,16 +10265,16 @@
         <v>63</v>
       </c>
       <c r="G232" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H232" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="I232" t="s">
         <v>66</v>
       </c>
       <c r="J232" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="K232" t="s">
         <v>68</v>
@@ -10171,16 +10291,16 @@
         <v>63</v>
       </c>
       <c r="G233" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H233" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="I233" t="s">
         <v>70</v>
       </c>
       <c r="J233" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="K233" t="s">
         <v>68</v>
@@ -10197,16 +10317,16 @@
         <v>63</v>
       </c>
       <c r="G234" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H234" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="I234" t="s">
         <v>66</v>
       </c>
       <c r="J234" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="K234" t="s">
         <v>68</v>
@@ -10223,16 +10343,16 @@
         <v>63</v>
       </c>
       <c r="G235" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H235" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="I235" t="s">
         <v>70</v>
       </c>
       <c r="J235" t="s">
-        <v>197</v>
+        <v>335</v>
       </c>
       <c r="K235" t="s">
         <v>68</v>
@@ -10249,16 +10369,16 @@
         <v>63</v>
       </c>
       <c r="G236" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H236" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="I236" t="s">
         <v>66</v>
       </c>
       <c r="J236" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="K236" t="s">
         <v>68</v>
@@ -10275,16 +10395,16 @@
         <v>63</v>
       </c>
       <c r="G237" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H237" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="I237" t="s">
         <v>70</v>
       </c>
       <c r="J237" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="K237" t="s">
         <v>68</v>
@@ -10301,16 +10421,16 @@
         <v>63</v>
       </c>
       <c r="G238" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H238" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="I238" t="s">
         <v>66</v>
       </c>
       <c r="J238" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="K238" t="s">
         <v>68</v>
@@ -10327,16 +10447,16 @@
         <v>63</v>
       </c>
       <c r="G239" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H239" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="I239" t="s">
         <v>70</v>
       </c>
       <c r="J239" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="K239" t="s">
         <v>68</v>
@@ -10353,16 +10473,16 @@
         <v>63</v>
       </c>
       <c r="G240" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H240" t="s">
-        <v>360</v>
+        <v>146</v>
       </c>
       <c r="I240" t="s">
         <v>66</v>
       </c>
       <c r="J240" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="K240" t="s">
         <v>68</v>
@@ -10379,16 +10499,16 @@
         <v>63</v>
       </c>
       <c r="G241" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H241" t="s">
-        <v>360</v>
+        <v>146</v>
       </c>
       <c r="I241" t="s">
         <v>70</v>
       </c>
       <c r="J241" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="K241" t="s">
         <v>68</v>
@@ -10405,16 +10525,16 @@
         <v>63</v>
       </c>
       <c r="G242" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="H242" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="I242" t="s">
         <v>66</v>
       </c>
       <c r="J242" t="s">
-        <v>73</v>
+        <v>344</v>
       </c>
       <c r="K242" t="s">
         <v>68</v>
@@ -10431,16 +10551,16 @@
         <v>63</v>
       </c>
       <c r="G243" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="H243" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="I243" t="s">
         <v>70</v>
       </c>
       <c r="J243" t="s">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="K243" t="s">
         <v>68</v>
@@ -10457,16 +10577,16 @@
         <v>63</v>
       </c>
       <c r="G244" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="H244" t="s">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="I244" t="s">
         <v>66</v>
       </c>
       <c r="J244" t="s">
-        <v>82</v>
+        <v>347</v>
       </c>
       <c r="K244" t="s">
         <v>68</v>
@@ -10483,16 +10603,16 @@
         <v>63</v>
       </c>
       <c r="G245" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="H245" t="s">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="I245" t="s">
         <v>70</v>
       </c>
       <c r="J245" t="s">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="K245" t="s">
         <v>68</v>
@@ -10509,16 +10629,16 @@
         <v>63</v>
       </c>
       <c r="G246" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="H246" t="s">
-        <v>88</v>
+        <v>349</v>
       </c>
       <c r="I246" t="s">
         <v>66</v>
       </c>
       <c r="J246" t="s">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="K246" t="s">
         <v>68</v>
@@ -10535,16 +10655,16 @@
         <v>63</v>
       </c>
       <c r="G247" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="H247" t="s">
-        <v>88</v>
+        <v>349</v>
       </c>
       <c r="I247" t="s">
         <v>70</v>
       </c>
       <c r="J247" t="s">
-        <v>90</v>
+        <v>351</v>
       </c>
       <c r="K247" t="s">
         <v>68</v>
@@ -10561,16 +10681,16 @@
         <v>63</v>
       </c>
       <c r="G248" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="H248" t="s">
-        <v>91</v>
+        <v>352</v>
       </c>
       <c r="I248" t="s">
         <v>66</v>
       </c>
       <c r="J248" t="s">
-        <v>92</v>
+        <v>353</v>
       </c>
       <c r="K248" t="s">
         <v>68</v>
@@ -10587,16 +10707,16 @@
         <v>63</v>
       </c>
       <c r="G249" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="H249" t="s">
-        <v>91</v>
+        <v>352</v>
       </c>
       <c r="I249" t="s">
         <v>70</v>
       </c>
       <c r="J249" t="s">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="K249" t="s">
         <v>68</v>
@@ -10613,16 +10733,16 @@
         <v>63</v>
       </c>
       <c r="G250" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="H250" t="s">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="I250" t="s">
         <v>66</v>
       </c>
       <c r="J250" t="s">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="K250" t="s">
         <v>68</v>
@@ -10639,16 +10759,16 @@
         <v>63</v>
       </c>
       <c r="G251" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="H251" t="s">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="I251" t="s">
         <v>70</v>
       </c>
       <c r="J251" t="s">
-        <v>102</v>
+        <v>357</v>
       </c>
       <c r="K251" t="s">
         <v>68</v>
@@ -10665,16 +10785,16 @@
         <v>63</v>
       </c>
       <c r="G252" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H252" t="s">
-        <v>106</v>
+        <v>359</v>
       </c>
       <c r="I252" t="s">
         <v>66</v>
       </c>
       <c r="J252" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="K252" t="s">
         <v>68</v>
@@ -10691,16 +10811,16 @@
         <v>63</v>
       </c>
       <c r="G253" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H253" t="s">
-        <v>106</v>
+        <v>359</v>
       </c>
       <c r="I253" t="s">
         <v>70</v>
       </c>
       <c r="J253" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="K253" t="s">
         <v>68</v>
@@ -10717,16 +10837,16 @@
         <v>63</v>
       </c>
       <c r="G254" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H254" t="s">
-        <v>109</v>
+        <v>360</v>
       </c>
       <c r="I254" t="s">
         <v>66</v>
       </c>
       <c r="J254" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="K254" t="s">
         <v>68</v>
@@ -10743,16 +10863,16 @@
         <v>63</v>
       </c>
       <c r="G255" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H255" t="s">
-        <v>109</v>
+        <v>360</v>
       </c>
       <c r="I255" t="s">
         <v>70</v>
       </c>
       <c r="J255" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="K255" t="s">
         <v>68</v>
@@ -10769,16 +10889,16 @@
         <v>63</v>
       </c>
       <c r="G256" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H256" t="s">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="I256" t="s">
         <v>66</v>
       </c>
       <c r="J256" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="K256" t="s">
         <v>68</v>
@@ -10795,16 +10915,16 @@
         <v>63</v>
       </c>
       <c r="G257" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H257" t="s">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="I257" t="s">
         <v>70</v>
       </c>
       <c r="J257" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="K257" t="s">
         <v>68</v>
@@ -10821,16 +10941,16 @@
         <v>63</v>
       </c>
       <c r="G258" t="s">
+        <v>358</v>
+      </c>
+      <c r="H258" t="s">
+        <v>362</v>
+      </c>
+      <c r="I258" t="s">
+        <v>66</v>
+      </c>
+      <c r="J258" t="s">
         <v>363</v>
-      </c>
-      <c r="H258" t="s">
-        <v>115</v>
-      </c>
-      <c r="I258" t="s">
-        <v>66</v>
-      </c>
-      <c r="J258" t="s">
-        <v>116</v>
       </c>
       <c r="K258" t="s">
         <v>68</v>
@@ -10847,16 +10967,16 @@
         <v>63</v>
       </c>
       <c r="G259" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H259" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="I259" t="s">
         <v>70</v>
       </c>
       <c r="J259" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="K259" t="s">
         <v>68</v>
@@ -10873,16 +10993,16 @@
         <v>63</v>
       </c>
       <c r="G260" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H260" t="s">
-        <v>120</v>
+        <v>364</v>
       </c>
       <c r="I260" t="s">
         <v>66</v>
       </c>
       <c r="J260" t="s">
-        <v>121</v>
+        <v>365</v>
       </c>
       <c r="K260" t="s">
         <v>68</v>
@@ -10899,16 +11019,16 @@
         <v>63</v>
       </c>
       <c r="G261" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H261" t="s">
-        <v>120</v>
+        <v>364</v>
       </c>
       <c r="I261" t="s">
         <v>70</v>
       </c>
       <c r="J261" t="s">
-        <v>122</v>
+        <v>366</v>
       </c>
       <c r="K261" t="s">
         <v>68</v>
@@ -10925,16 +11045,16 @@
         <v>63</v>
       </c>
       <c r="G262" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H262" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="I262" t="s">
         <v>66</v>
       </c>
       <c r="J262" t="s">
-        <v>85</v>
+        <v>368</v>
       </c>
       <c r="K262" t="s">
         <v>68</v>
@@ -10951,16 +11071,16 @@
         <v>63</v>
       </c>
       <c r="G263" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H263" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="I263" t="s">
         <v>70</v>
       </c>
       <c r="J263" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="K263" t="s">
         <v>68</v>
@@ -10977,16 +11097,16 @@
         <v>63</v>
       </c>
       <c r="G264" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H264" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="I264" t="s">
         <v>66</v>
       </c>
       <c r="J264" t="s">
-        <v>85</v>
+        <v>370</v>
       </c>
       <c r="K264" t="s">
         <v>68</v>
@@ -11003,16 +11123,16 @@
         <v>63</v>
       </c>
       <c r="G265" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H265" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="I265" t="s">
         <v>70</v>
       </c>
       <c r="J265" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="K265" t="s">
         <v>68</v>
@@ -11029,16 +11149,16 @@
         <v>63</v>
       </c>
       <c r="G266" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H266" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I266" t="s">
         <v>66</v>
       </c>
       <c r="J266" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K266" t="s">
         <v>68</v>
@@ -11055,16 +11175,16 @@
         <v>63</v>
       </c>
       <c r="G267" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H267" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I267" t="s">
         <v>70</v>
       </c>
       <c r="J267" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K267" t="s">
         <v>68</v>
@@ -11081,16 +11201,16 @@
         <v>63</v>
       </c>
       <c r="G268" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H268" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I268" t="s">
         <v>66</v>
       </c>
       <c r="J268" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K268" t="s">
         <v>68</v>
@@ -11107,16 +11227,16 @@
         <v>63</v>
       </c>
       <c r="G269" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H269" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I269" t="s">
         <v>70</v>
       </c>
       <c r="J269" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K269" t="s">
         <v>68</v>
@@ -11133,16 +11253,16 @@
         <v>63</v>
       </c>
       <c r="G270" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H270" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="I270" t="s">
         <v>66</v>
       </c>
       <c r="J270" t="s">
-        <v>73</v>
+        <v>376</v>
       </c>
       <c r="K270" t="s">
         <v>68</v>
@@ -11159,16 +11279,16 @@
         <v>63</v>
       </c>
       <c r="G271" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H271" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="I271" t="s">
         <v>70</v>
       </c>
       <c r="J271" t="s">
-        <v>74</v>
+        <v>377</v>
       </c>
       <c r="K271" t="s">
         <v>68</v>
@@ -11185,16 +11305,16 @@
         <v>63</v>
       </c>
       <c r="G272" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H272" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="I272" t="s">
         <v>66</v>
       </c>
       <c r="J272" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="K272" t="s">
         <v>68</v>
@@ -11211,16 +11331,16 @@
         <v>63</v>
       </c>
       <c r="G273" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H273" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="I273" t="s">
         <v>70</v>
       </c>
       <c r="J273" t="s">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c r="K273" t="s">
         <v>68</v>
@@ -11237,16 +11357,16 @@
         <v>63</v>
       </c>
       <c r="G274" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H274" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="I274" t="s">
         <v>66</v>
       </c>
       <c r="J274" t="s">
-        <v>373</v>
+        <v>281</v>
       </c>
       <c r="K274" t="s">
         <v>68</v>
@@ -11263,16 +11383,16 @@
         <v>63</v>
       </c>
       <c r="G275" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H275" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="I275" t="s">
         <v>70</v>
       </c>
       <c r="J275" t="s">
-        <v>374</v>
+        <v>245</v>
       </c>
       <c r="K275" t="s">
         <v>68</v>
@@ -11289,16 +11409,16 @@
         <v>63</v>
       </c>
       <c r="G276" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H276" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="I276" t="s">
         <v>66</v>
       </c>
       <c r="J276" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K276" t="s">
         <v>68</v>
@@ -11315,16 +11435,16 @@
         <v>63</v>
       </c>
       <c r="G277" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H277" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="I277" t="s">
         <v>70</v>
       </c>
       <c r="J277" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K277" t="s">
         <v>68</v>
@@ -11341,16 +11461,16 @@
         <v>63</v>
       </c>
       <c r="G278" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H278" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="I278" t="s">
         <v>66</v>
       </c>
       <c r="J278" t="s">
-        <v>379</v>
+        <v>283</v>
       </c>
       <c r="K278" t="s">
         <v>68</v>
@@ -11367,16 +11487,16 @@
         <v>63</v>
       </c>
       <c r="G279" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H279" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="I279" t="s">
         <v>70</v>
       </c>
       <c r="J279" t="s">
-        <v>380</v>
+        <v>284</v>
       </c>
       <c r="K279" t="s">
         <v>68</v>
@@ -11393,16 +11513,16 @@
         <v>63</v>
       </c>
       <c r="G280" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H280" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I280" t="s">
         <v>66</v>
       </c>
       <c r="J280" t="s">
-        <v>382</v>
+        <v>115</v>
       </c>
       <c r="K280" t="s">
         <v>68</v>
@@ -11419,16 +11539,16 @@
         <v>63</v>
       </c>
       <c r="G281" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H281" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I281" t="s">
         <v>70</v>
       </c>
       <c r="J281" t="s">
-        <v>383</v>
+        <v>116</v>
       </c>
       <c r="K281" t="s">
         <v>68</v>
@@ -11445,16 +11565,16 @@
         <v>63</v>
       </c>
       <c r="G282" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H282" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I282" t="s">
         <v>66</v>
       </c>
       <c r="J282" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K282" t="s">
         <v>68</v>
@@ -11471,16 +11591,16 @@
         <v>63</v>
       </c>
       <c r="G283" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H283" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I283" t="s">
         <v>70</v>
       </c>
       <c r="J283" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K283" t="s">
         <v>68</v>
@@ -11497,16 +11617,16 @@
         <v>63</v>
       </c>
       <c r="G284" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H284" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I284" t="s">
         <v>66</v>
       </c>
       <c r="J284" t="s">
-        <v>388</v>
+        <v>207</v>
       </c>
       <c r="K284" t="s">
         <v>68</v>
@@ -11523,16 +11643,16 @@
         <v>63</v>
       </c>
       <c r="G285" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H285" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I285" t="s">
         <v>70</v>
       </c>
       <c r="J285" t="s">
-        <v>389</v>
+        <v>98</v>
       </c>
       <c r="K285" t="s">
         <v>68</v>
@@ -11549,16 +11669,16 @@
         <v>63</v>
       </c>
       <c r="G286" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H286" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I286" t="s">
         <v>66</v>
       </c>
       <c r="J286" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="K286" t="s">
         <v>68</v>
@@ -11575,16 +11695,16 @@
         <v>63</v>
       </c>
       <c r="G287" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H287" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I287" t="s">
         <v>70</v>
       </c>
       <c r="J287" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="K287" t="s">
         <v>68</v>
@@ -11601,16 +11721,16 @@
         <v>63</v>
       </c>
       <c r="G288" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H288" t="s">
+        <v>390</v>
+      </c>
+      <c r="I288" t="s">
+        <v>66</v>
+      </c>
+      <c r="J288" t="s">
         <v>391</v>
-      </c>
-      <c r="I288" t="s">
-        <v>66</v>
-      </c>
-      <c r="J288" t="s">
-        <v>191</v>
       </c>
       <c r="K288" t="s">
         <v>68</v>
@@ -11627,16 +11747,16 @@
         <v>63</v>
       </c>
       <c r="G289" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H289" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I289" t="s">
         <v>70</v>
       </c>
       <c r="J289" t="s">
-        <v>96</v>
+        <v>392</v>
       </c>
       <c r="K289" t="s">
         <v>68</v>
@@ -11653,16 +11773,16 @@
         <v>63</v>
       </c>
       <c r="G290" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H290" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I290" t="s">
         <v>66</v>
       </c>
       <c r="J290" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K290" t="s">
         <v>68</v>
@@ -11679,16 +11799,16 @@
         <v>63</v>
       </c>
       <c r="G291" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H291" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I291" t="s">
         <v>70</v>
       </c>
       <c r="J291" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K291" t="s">
         <v>68</v>
@@ -11705,16 +11825,16 @@
         <v>63</v>
       </c>
       <c r="G292" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H292" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="I292" t="s">
         <v>66</v>
       </c>
       <c r="J292" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K292" t="s">
         <v>68</v>
@@ -11731,16 +11851,16 @@
         <v>63</v>
       </c>
       <c r="G293" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H293" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="I293" t="s">
         <v>70</v>
       </c>
       <c r="J293" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K293" t="s">
         <v>68</v>
@@ -11757,16 +11877,16 @@
         <v>63</v>
       </c>
       <c r="G294" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="H294" t="s">
-        <v>397</v>
+        <v>72</v>
       </c>
       <c r="I294" t="s">
         <v>66</v>
       </c>
       <c r="J294" t="s">
-        <v>398</v>
+        <v>73</v>
       </c>
       <c r="K294" t="s">
         <v>68</v>
@@ -11783,16 +11903,16 @@
         <v>63</v>
       </c>
       <c r="G295" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="H295" t="s">
-        <v>397</v>
+        <v>72</v>
       </c>
       <c r="I295" t="s">
         <v>70</v>
       </c>
       <c r="J295" t="s">
-        <v>399</v>
+        <v>74</v>
       </c>
       <c r="K295" t="s">
         <v>68</v>
@@ -11809,16 +11929,16 @@
         <v>63</v>
       </c>
       <c r="G296" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="H296" t="s">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="I296" t="s">
         <v>66</v>
       </c>
       <c r="J296" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K296" t="s">
         <v>68</v>
@@ -11835,16 +11955,16 @@
         <v>63</v>
       </c>
       <c r="G297" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="H297" t="s">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="I297" t="s">
         <v>70</v>
       </c>
       <c r="J297" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K297" t="s">
         <v>68</v>
@@ -11861,16 +11981,16 @@
         <v>63</v>
       </c>
       <c r="G298" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H298" t="s">
-        <v>402</v>
+        <v>88</v>
       </c>
       <c r="I298" t="s">
         <v>66</v>
       </c>
       <c r="J298" t="s">
-        <v>403</v>
+        <v>89</v>
       </c>
       <c r="K298" t="s">
         <v>68</v>
@@ -11887,16 +12007,16 @@
         <v>63</v>
       </c>
       <c r="G299" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H299" t="s">
-        <v>402</v>
+        <v>88</v>
       </c>
       <c r="I299" t="s">
         <v>70</v>
       </c>
       <c r="J299" t="s">
-        <v>404</v>
+        <v>90</v>
       </c>
       <c r="K299" t="s">
         <v>68</v>
@@ -11913,16 +12033,16 @@
         <v>63</v>
       </c>
       <c r="G300" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H300" t="s">
-        <v>405</v>
+        <v>93</v>
       </c>
       <c r="I300" t="s">
         <v>66</v>
       </c>
       <c r="J300" t="s">
-        <v>224</v>
+        <v>94</v>
       </c>
       <c r="K300" t="s">
         <v>68</v>
@@ -11939,16 +12059,16 @@
         <v>63</v>
       </c>
       <c r="G301" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H301" t="s">
-        <v>405</v>
+        <v>93</v>
       </c>
       <c r="I301" t="s">
         <v>70</v>
       </c>
       <c r="J301" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="K301" t="s">
         <v>68</v>
@@ -11965,16 +12085,16 @@
         <v>63</v>
       </c>
       <c r="G302" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H302" t="s">
-        <v>406</v>
+        <v>102</v>
       </c>
       <c r="I302" t="s">
         <v>66</v>
       </c>
       <c r="J302" t="s">
-        <v>327</v>
+        <v>103</v>
       </c>
       <c r="K302" t="s">
         <v>68</v>
@@ -11991,16 +12111,16 @@
         <v>63</v>
       </c>
       <c r="G303" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H303" t="s">
-        <v>406</v>
+        <v>102</v>
       </c>
       <c r="I303" t="s">
         <v>70</v>
       </c>
       <c r="J303" t="s">
-        <v>260</v>
+        <v>104</v>
       </c>
       <c r="K303" t="s">
         <v>68</v>
@@ -12017,16 +12137,16 @@
         <v>63</v>
       </c>
       <c r="G304" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H304" t="s">
-        <v>407</v>
+        <v>108</v>
       </c>
       <c r="I304" t="s">
         <v>66</v>
       </c>
       <c r="J304" t="s">
-        <v>332</v>
+        <v>109</v>
       </c>
       <c r="K304" t="s">
         <v>68</v>
@@ -12043,16 +12163,16 @@
         <v>63</v>
       </c>
       <c r="G305" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H305" t="s">
-        <v>407</v>
+        <v>108</v>
       </c>
       <c r="I305" t="s">
         <v>70</v>
       </c>
       <c r="J305" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="K305" t="s">
         <v>68</v>
@@ -12069,16 +12189,16 @@
         <v>63</v>
       </c>
       <c r="G306" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H306" t="s">
-        <v>408</v>
+        <v>111</v>
       </c>
       <c r="I306" t="s">
         <v>66</v>
       </c>
       <c r="J306" t="s">
-        <v>409</v>
+        <v>112</v>
       </c>
       <c r="K306" t="s">
         <v>68</v>
@@ -12095,16 +12215,16 @@
         <v>63</v>
       </c>
       <c r="G307" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H307" t="s">
-        <v>408</v>
+        <v>111</v>
       </c>
       <c r="I307" t="s">
         <v>70</v>
       </c>
       <c r="J307" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="K307" t="s">
         <v>68</v>
@@ -12121,16 +12241,16 @@
         <v>63</v>
       </c>
       <c r="G308" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H308" t="s">
-        <v>410</v>
+        <v>114</v>
       </c>
       <c r="I308" t="s">
         <v>66</v>
       </c>
       <c r="J308" t="s">
-        <v>411</v>
+        <v>115</v>
       </c>
       <c r="K308" t="s">
         <v>68</v>
@@ -12147,16 +12267,16 @@
         <v>63</v>
       </c>
       <c r="G309" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H309" t="s">
-        <v>410</v>
+        <v>114</v>
       </c>
       <c r="I309" t="s">
         <v>70</v>
       </c>
       <c r="J309" t="s">
-        <v>374</v>
+        <v>116</v>
       </c>
       <c r="K309" t="s">
         <v>68</v>
@@ -12173,16 +12293,16 @@
         <v>63</v>
       </c>
       <c r="G310" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H310" t="s">
-        <v>412</v>
+        <v>121</v>
       </c>
       <c r="I310" t="s">
         <v>66</v>
       </c>
       <c r="J310" t="s">
-        <v>376</v>
+        <v>122</v>
       </c>
       <c r="K310" t="s">
         <v>68</v>
@@ -12199,16 +12319,16 @@
         <v>63</v>
       </c>
       <c r="G311" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H311" t="s">
-        <v>412</v>
+        <v>121</v>
       </c>
       <c r="I311" t="s">
         <v>70</v>
       </c>
       <c r="J311" t="s">
-        <v>377</v>
+        <v>123</v>
       </c>
       <c r="K311" t="s">
         <v>68</v>
@@ -12225,16 +12345,16 @@
         <v>63</v>
       </c>
       <c r="G312" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H312" t="s">
-        <v>413</v>
+        <v>130</v>
       </c>
       <c r="I312" t="s">
         <v>66</v>
       </c>
       <c r="J312" t="s">
-        <v>379</v>
+        <v>131</v>
       </c>
       <c r="K312" t="s">
         <v>68</v>
@@ -12251,16 +12371,16 @@
         <v>63</v>
       </c>
       <c r="G313" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H313" t="s">
-        <v>413</v>
+        <v>130</v>
       </c>
       <c r="I313" t="s">
         <v>70</v>
       </c>
       <c r="J313" t="s">
-        <v>380</v>
+        <v>132</v>
       </c>
       <c r="K313" t="s">
         <v>68</v>
@@ -12277,16 +12397,16 @@
         <v>63</v>
       </c>
       <c r="G314" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H314" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="I314" t="s">
         <v>66</v>
       </c>
       <c r="J314" t="s">
-        <v>382</v>
+        <v>85</v>
       </c>
       <c r="K314" t="s">
         <v>68</v>
@@ -12303,16 +12423,16 @@
         <v>63</v>
       </c>
       <c r="G315" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H315" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="I315" t="s">
         <v>70</v>
       </c>
       <c r="J315" t="s">
-        <v>383</v>
+        <v>86</v>
       </c>
       <c r="K315" t="s">
         <v>68</v>
@@ -12329,16 +12449,16 @@
         <v>63</v>
       </c>
       <c r="G316" t="s">
+        <v>399</v>
+      </c>
+      <c r="H316" t="s">
         <v>401</v>
       </c>
-      <c r="H316" t="s">
-        <v>415</v>
-      </c>
       <c r="I316" t="s">
         <v>66</v>
       </c>
       <c r="J316" t="s">
-        <v>416</v>
+        <v>85</v>
       </c>
       <c r="K316" t="s">
         <v>68</v>
@@ -12355,16 +12475,16 @@
         <v>63</v>
       </c>
       <c r="G317" t="s">
+        <v>399</v>
+      </c>
+      <c r="H317" t="s">
         <v>401</v>
       </c>
-      <c r="H317" t="s">
-        <v>415</v>
-      </c>
       <c r="I317" t="s">
         <v>70</v>
       </c>
       <c r="J317" t="s">
-        <v>417</v>
+        <v>86</v>
       </c>
       <c r="K317" t="s">
         <v>68</v>
@@ -12381,16 +12501,16 @@
         <v>63</v>
       </c>
       <c r="G318" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H318" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="I318" t="s">
         <v>66</v>
       </c>
       <c r="J318" t="s">
-        <v>419</v>
+        <v>82</v>
       </c>
       <c r="K318" t="s">
         <v>68</v>
@@ -12407,16 +12527,16 @@
         <v>63</v>
       </c>
       <c r="G319" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H319" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="I319" t="s">
         <v>70</v>
       </c>
       <c r="J319" t="s">
-        <v>420</v>
+        <v>83</v>
       </c>
       <c r="K319" t="s">
         <v>68</v>
@@ -12433,16 +12553,16 @@
         <v>63</v>
       </c>
       <c r="G320" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H320" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="I320" t="s">
         <v>66</v>
       </c>
       <c r="J320" t="s">
-        <v>191</v>
+        <v>404</v>
       </c>
       <c r="K320" t="s">
         <v>68</v>
@@ -12459,16 +12579,16 @@
         <v>63</v>
       </c>
       <c r="G321" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H321" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="I321" t="s">
         <v>70</v>
       </c>
       <c r="J321" t="s">
-        <v>96</v>
+        <v>405</v>
       </c>
       <c r="K321" t="s">
         <v>68</v>
@@ -12485,16 +12605,16 @@
         <v>63</v>
       </c>
       <c r="G322" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H322" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="I322" t="s">
         <v>66</v>
       </c>
       <c r="J322" t="s">
-        <v>419</v>
+        <v>73</v>
       </c>
       <c r="K322" t="s">
         <v>68</v>
@@ -12511,16 +12631,16 @@
         <v>63</v>
       </c>
       <c r="G323" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H323" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="I323" t="s">
         <v>70</v>
       </c>
       <c r="J323" t="s">
-        <v>420</v>
+        <v>74</v>
       </c>
       <c r="K323" t="s">
         <v>68</v>
@@ -12537,16 +12657,16 @@
         <v>63</v>
       </c>
       <c r="G324" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H324" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="I324" t="s">
         <v>66</v>
       </c>
       <c r="J324" t="s">
-        <v>423</v>
+        <v>109</v>
       </c>
       <c r="K324" t="s">
         <v>68</v>
@@ -12563,16 +12683,16 @@
         <v>63</v>
       </c>
       <c r="G325" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H325" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="I325" t="s">
         <v>70</v>
       </c>
       <c r="J325" t="s">
-        <v>424</v>
+        <v>110</v>
       </c>
       <c r="K325" t="s">
         <v>68</v>
@@ -12589,16 +12709,16 @@
         <v>63</v>
       </c>
       <c r="G326" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H326" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="I326" t="s">
         <v>66</v>
       </c>
       <c r="J326" t="s">
-        <v>73</v>
+        <v>409</v>
       </c>
       <c r="K326" t="s">
         <v>68</v>
@@ -12615,16 +12735,16 @@
         <v>63</v>
       </c>
       <c r="G327" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H327" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="I327" t="s">
         <v>70</v>
       </c>
       <c r="J327" t="s">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="K327" t="s">
         <v>68</v>
@@ -12641,16 +12761,16 @@
         <v>63</v>
       </c>
       <c r="G328" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H328" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="I328" t="s">
         <v>66</v>
       </c>
       <c r="J328" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="K328" t="s">
         <v>68</v>
@@ -12667,16 +12787,16 @@
         <v>63</v>
       </c>
       <c r="G329" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H329" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="I329" t="s">
         <v>70</v>
       </c>
       <c r="J329" t="s">
-        <v>146</v>
+        <v>413</v>
       </c>
       <c r="K329" t="s">
         <v>68</v>
@@ -12693,16 +12813,16 @@
         <v>63</v>
       </c>
       <c r="G330" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H330" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="I330" t="s">
         <v>66</v>
       </c>
       <c r="J330" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="K330" t="s">
         <v>68</v>
@@ -12719,16 +12839,16 @@
         <v>63</v>
       </c>
       <c r="G331" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H331" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="I331" t="s">
         <v>70</v>
       </c>
       <c r="J331" t="s">
-        <v>149</v>
+        <v>416</v>
       </c>
       <c r="K331" t="s">
         <v>68</v>
@@ -12745,16 +12865,16 @@
         <v>63</v>
       </c>
       <c r="G332" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H332" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="I332" t="s">
         <v>66</v>
       </c>
       <c r="J332" t="s">
-        <v>151</v>
+        <v>418</v>
       </c>
       <c r="K332" t="s">
         <v>68</v>
@@ -12771,16 +12891,16 @@
         <v>63</v>
       </c>
       <c r="G333" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H333" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="I333" t="s">
         <v>70</v>
       </c>
       <c r="J333" t="s">
-        <v>152</v>
+        <v>419</v>
       </c>
       <c r="K333" t="s">
         <v>68</v>
@@ -12797,16 +12917,16 @@
         <v>63</v>
       </c>
       <c r="G334" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H334" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="I334" t="s">
         <v>66</v>
       </c>
       <c r="J334" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="K334" t="s">
         <v>68</v>
@@ -12823,16 +12943,16 @@
         <v>63</v>
       </c>
       <c r="G335" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H335" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="I335" t="s">
         <v>70</v>
       </c>
       <c r="J335" t="s">
-        <v>155</v>
+        <v>422</v>
       </c>
       <c r="K335" t="s">
         <v>68</v>
@@ -12849,16 +12969,16 @@
         <v>63</v>
       </c>
       <c r="G336" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H336" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="I336" t="s">
         <v>66</v>
       </c>
       <c r="J336" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="K336" t="s">
         <v>68</v>
@@ -12875,16 +12995,16 @@
         <v>63</v>
       </c>
       <c r="G337" t="s">
+        <v>399</v>
+      </c>
+      <c r="H337" t="s">
+        <v>423</v>
+      </c>
+      <c r="I337" t="s">
+        <v>70</v>
+      </c>
+      <c r="J337" t="s">
         <v>425</v>
-      </c>
-      <c r="H337" t="s">
-        <v>433</v>
-      </c>
-      <c r="I337" t="s">
-        <v>70</v>
-      </c>
-      <c r="J337" t="s">
-        <v>90</v>
       </c>
       <c r="K337" t="s">
         <v>68</v>
@@ -12901,16 +13021,16 @@
         <v>63</v>
       </c>
       <c r="G338" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H338" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="I338" t="s">
         <v>66</v>
       </c>
       <c r="J338" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="K338" t="s">
         <v>68</v>
@@ -12927,16 +13047,16 @@
         <v>63</v>
       </c>
       <c r="G339" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H339" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="I339" t="s">
         <v>70</v>
       </c>
       <c r="J339" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K339" t="s">
         <v>68</v>
@@ -12953,16 +13073,16 @@
         <v>63</v>
       </c>
       <c r="G340" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H340" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="I340" t="s">
         <v>66</v>
       </c>
       <c r="J340" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="K340" t="s">
         <v>68</v>
@@ -12979,16 +13099,16 @@
         <v>63</v>
       </c>
       <c r="G341" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H341" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="I341" t="s">
         <v>70</v>
       </c>
       <c r="J341" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K341" t="s">
         <v>68</v>
@@ -13005,16 +13125,16 @@
         <v>63</v>
       </c>
       <c r="G342" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H342" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="I342" t="s">
         <v>66</v>
       </c>
       <c r="J342" t="s">
-        <v>159</v>
+        <v>429</v>
       </c>
       <c r="K342" t="s">
         <v>68</v>
@@ -13031,16 +13151,16 @@
         <v>63</v>
       </c>
       <c r="G343" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H343" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="I343" t="s">
         <v>70</v>
       </c>
       <c r="J343" t="s">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K343" t="s">
         <v>68</v>
@@ -13057,16 +13177,16 @@
         <v>63</v>
       </c>
       <c r="G344" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H344" t="s">
-        <v>437</v>
+        <v>346</v>
       </c>
       <c r="I344" t="s">
         <v>66</v>
       </c>
       <c r="J344" t="s">
-        <v>162</v>
+        <v>431</v>
       </c>
       <c r="K344" t="s">
         <v>68</v>
@@ -13083,16 +13203,16 @@
         <v>63</v>
       </c>
       <c r="G345" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H345" t="s">
-        <v>437</v>
+        <v>346</v>
       </c>
       <c r="I345" t="s">
         <v>70</v>
       </c>
       <c r="J345" t="s">
-        <v>163</v>
+        <v>432</v>
       </c>
       <c r="K345" t="s">
         <v>68</v>
@@ -13109,16 +13229,16 @@
         <v>63</v>
       </c>
       <c r="G346" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H346" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I346" t="s">
         <v>66</v>
       </c>
       <c r="J346" t="s">
-        <v>165</v>
+        <v>434</v>
       </c>
       <c r="K346" t="s">
         <v>68</v>
@@ -13135,16 +13255,16 @@
         <v>63</v>
       </c>
       <c r="G347" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H347" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I347" t="s">
         <v>70</v>
       </c>
       <c r="J347" t="s">
-        <v>166</v>
+        <v>435</v>
       </c>
       <c r="K347" t="s">
         <v>68</v>
@@ -13161,16 +13281,16 @@
         <v>63</v>
       </c>
       <c r="G348" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H348" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I348" t="s">
         <v>66</v>
       </c>
       <c r="J348" t="s">
-        <v>196</v>
+        <v>437</v>
       </c>
       <c r="K348" t="s">
         <v>68</v>
@@ -13187,16 +13307,16 @@
         <v>63</v>
       </c>
       <c r="G349" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H349" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I349" t="s">
         <v>70</v>
       </c>
       <c r="J349" t="s">
-        <v>197</v>
+        <v>405</v>
       </c>
       <c r="K349" t="s">
         <v>68</v>
@@ -13213,16 +13333,16 @@
         <v>63</v>
       </c>
       <c r="G350" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H350" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I350" t="s">
         <v>66</v>
       </c>
       <c r="J350" t="s">
-        <v>169</v>
+        <v>439</v>
       </c>
       <c r="K350" t="s">
         <v>68</v>
@@ -13239,16 +13359,16 @@
         <v>63</v>
       </c>
       <c r="G351" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H351" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I351" t="s">
         <v>70</v>
       </c>
       <c r="J351" t="s">
-        <v>169</v>
+        <v>439</v>
       </c>
       <c r="K351" t="s">
         <v>68</v>
@@ -13265,16 +13385,16 @@
         <v>63</v>
       </c>
       <c r="G352" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H352" t="s">
+        <v>440</v>
+      </c>
+      <c r="I352" t="s">
+        <v>66</v>
+      </c>
+      <c r="J352" t="s">
         <v>441</v>
-      </c>
-      <c r="I352" t="s">
-        <v>66</v>
-      </c>
-      <c r="J352" t="s">
-        <v>171</v>
       </c>
       <c r="K352" t="s">
         <v>68</v>
@@ -13291,16 +13411,16 @@
         <v>63</v>
       </c>
       <c r="G353" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H353" t="s">
+        <v>440</v>
+      </c>
+      <c r="I353" t="s">
+        <v>70</v>
+      </c>
+      <c r="J353" t="s">
         <v>441</v>
-      </c>
-      <c r="I353" t="s">
-        <v>70</v>
-      </c>
-      <c r="J353" t="s">
-        <v>172</v>
       </c>
       <c r="K353" t="s">
         <v>68</v>
@@ -13317,7 +13437,7 @@
         <v>63</v>
       </c>
       <c r="G354" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H354" t="s">
         <v>442</v>
@@ -13326,7 +13446,7 @@
         <v>66</v>
       </c>
       <c r="J354" t="s">
-        <v>174</v>
+        <v>443</v>
       </c>
       <c r="K354" t="s">
         <v>68</v>
@@ -13343,7 +13463,7 @@
         <v>63</v>
       </c>
       <c r="G355" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H355" t="s">
         <v>442</v>
@@ -13352,7 +13472,7 @@
         <v>70</v>
       </c>
       <c r="J355" t="s">
-        <v>174</v>
+        <v>443</v>
       </c>
       <c r="K355" t="s">
         <v>68</v>
@@ -13369,16 +13489,16 @@
         <v>63</v>
       </c>
       <c r="G356" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H356" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I356" t="s">
         <v>66</v>
       </c>
       <c r="J356" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="K356" t="s">
         <v>68</v>
@@ -13395,16 +13515,16 @@
         <v>63</v>
       </c>
       <c r="G357" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H357" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I357" t="s">
         <v>70</v>
       </c>
       <c r="J357" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="K357" t="s">
         <v>68</v>
@@ -13421,16 +13541,16 @@
         <v>63</v>
       </c>
       <c r="G358" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H358" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I358" t="s">
         <v>66</v>
       </c>
       <c r="J358" t="s">
-        <v>179</v>
+        <v>447</v>
       </c>
       <c r="K358" t="s">
         <v>68</v>
@@ -13447,16 +13567,16 @@
         <v>63</v>
       </c>
       <c r="G359" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H359" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I359" t="s">
         <v>70</v>
       </c>
       <c r="J359" t="s">
-        <v>180</v>
+        <v>448</v>
       </c>
       <c r="K359" t="s">
         <v>68</v>
@@ -13473,16 +13593,16 @@
         <v>63</v>
       </c>
       <c r="G360" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H360" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I360" t="s">
         <v>66</v>
       </c>
       <c r="J360" t="s">
-        <v>446</v>
+        <v>262</v>
       </c>
       <c r="K360" t="s">
         <v>68</v>
@@ -13499,16 +13619,16 @@
         <v>63</v>
       </c>
       <c r="G361" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H361" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I361" t="s">
         <v>70</v>
       </c>
       <c r="J361" t="s">
-        <v>447</v>
+        <v>241</v>
       </c>
       <c r="K361" t="s">
         <v>68</v>
@@ -13525,16 +13645,16 @@
         <v>63</v>
       </c>
       <c r="G362" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H362" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I362" t="s">
         <v>66</v>
       </c>
       <c r="J362" t="s">
-        <v>110</v>
+        <v>363</v>
       </c>
       <c r="K362" t="s">
         <v>68</v>
@@ -13551,16 +13671,16 @@
         <v>63</v>
       </c>
       <c r="G363" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H363" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I363" t="s">
         <v>70</v>
       </c>
       <c r="J363" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="K363" t="s">
         <v>68</v>
@@ -13577,16 +13697,16 @@
         <v>63</v>
       </c>
       <c r="G364" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H364" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I364" t="s">
         <v>66</v>
       </c>
       <c r="J364" t="s">
-        <v>185</v>
+        <v>368</v>
       </c>
       <c r="K364" t="s">
         <v>68</v>
@@ -13603,16 +13723,16 @@
         <v>63</v>
       </c>
       <c r="G365" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H365" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I365" t="s">
         <v>70</v>
       </c>
       <c r="J365" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="K365" t="s">
         <v>68</v>
@@ -13629,16 +13749,16 @@
         <v>63</v>
       </c>
       <c r="G366" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H366" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I366" t="s">
         <v>66</v>
       </c>
       <c r="J366" t="s">
-        <v>185</v>
+        <v>453</v>
       </c>
       <c r="K366" t="s">
         <v>68</v>
@@ -13655,16 +13775,16 @@
         <v>63</v>
       </c>
       <c r="G367" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H367" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I367" t="s">
         <v>70</v>
       </c>
       <c r="J367" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="K367" t="s">
         <v>68</v>
@@ -13681,16 +13801,16 @@
         <v>63</v>
       </c>
       <c r="G368" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H368" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="I368" t="s">
         <v>66</v>
       </c>
       <c r="J368" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K368" t="s">
         <v>68</v>
@@ -13707,16 +13827,16 @@
         <v>63</v>
       </c>
       <c r="G369" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H369" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="I369" t="s">
         <v>70</v>
       </c>
       <c r="J369" t="s">
-        <v>189</v>
+        <v>410</v>
       </c>
       <c r="K369" t="s">
         <v>68</v>
@@ -13733,16 +13853,16 @@
         <v>63</v>
       </c>
       <c r="G370" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H370" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="I370" t="s">
         <v>66</v>
       </c>
       <c r="J370" t="s">
-        <v>191</v>
+        <v>412</v>
       </c>
       <c r="K370" t="s">
         <v>68</v>
@@ -13759,16 +13879,16 @@
         <v>63</v>
       </c>
       <c r="G371" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H371" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="I371" t="s">
         <v>70</v>
       </c>
       <c r="J371" t="s">
-        <v>96</v>
+        <v>413</v>
       </c>
       <c r="K371" t="s">
         <v>68</v>
@@ -13785,16 +13905,16 @@
         <v>63</v>
       </c>
       <c r="G372" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H372" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I372" t="s">
         <v>66</v>
       </c>
       <c r="J372" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="K372" t="s">
         <v>68</v>
@@ -13811,16 +13931,16 @@
         <v>63</v>
       </c>
       <c r="G373" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H373" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I373" t="s">
         <v>70</v>
       </c>
       <c r="J373" t="s">
-        <v>194</v>
+        <v>416</v>
       </c>
       <c r="K373" t="s">
         <v>68</v>
@@ -13837,16 +13957,16 @@
         <v>63</v>
       </c>
       <c r="G374" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H374" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="I374" t="s">
         <v>66</v>
       </c>
       <c r="J374" t="s">
-        <v>196</v>
+        <v>418</v>
       </c>
       <c r="K374" t="s">
         <v>68</v>
@@ -13863,16 +13983,16 @@
         <v>63</v>
       </c>
       <c r="G375" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H375" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="I375" t="s">
         <v>70</v>
       </c>
       <c r="J375" t="s">
-        <v>197</v>
+        <v>419</v>
       </c>
       <c r="K375" t="s">
         <v>68</v>
@@ -13889,16 +14009,16 @@
         <v>63</v>
       </c>
       <c r="G376" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H376" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I376" t="s">
         <v>66</v>
       </c>
       <c r="J376" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K376" t="s">
         <v>68</v>
@@ -13915,16 +14035,16 @@
         <v>63</v>
       </c>
       <c r="G377" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H377" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I377" t="s">
         <v>70</v>
       </c>
       <c r="J377" t="s">
-        <v>200</v>
+        <v>461</v>
       </c>
       <c r="K377" t="s">
         <v>68</v>
@@ -13941,16 +14061,16 @@
         <v>63</v>
       </c>
       <c r="G378" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H378" t="s">
-        <v>201</v>
+        <v>462</v>
       </c>
       <c r="I378" t="s">
         <v>66</v>
       </c>
       <c r="J378" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
       <c r="K378" t="s">
         <v>68</v>
@@ -13967,16 +14087,16 @@
         <v>63</v>
       </c>
       <c r="G379" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H379" t="s">
-        <v>201</v>
+        <v>462</v>
       </c>
       <c r="I379" t="s">
         <v>70</v>
       </c>
       <c r="J379" t="s">
-        <v>203</v>
+        <v>464</v>
       </c>
       <c r="K379" t="s">
         <v>68</v>
@@ -13993,16 +14113,16 @@
         <v>63</v>
       </c>
       <c r="G380" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H380" t="s">
-        <v>204</v>
+        <v>465</v>
       </c>
       <c r="I380" t="s">
         <v>66</v>
       </c>
       <c r="J380" t="s">
-        <v>459</v>
+        <v>207</v>
       </c>
       <c r="K380" t="s">
         <v>68</v>
@@ -14019,16 +14139,16 @@
         <v>63</v>
       </c>
       <c r="G381" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H381" t="s">
-        <v>204</v>
+        <v>465</v>
       </c>
       <c r="I381" t="s">
         <v>70</v>
       </c>
       <c r="J381" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="K381" t="s">
         <v>68</v>
@@ -14045,16 +14165,16 @@
         <v>63</v>
       </c>
       <c r="G382" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H382" t="s">
-        <v>207</v>
+        <v>466</v>
       </c>
       <c r="I382" t="s">
         <v>66</v>
       </c>
       <c r="J382" t="s">
-        <v>208</v>
+        <v>463</v>
       </c>
       <c r="K382" t="s">
         <v>68</v>
@@ -14071,16 +14191,16 @@
         <v>63</v>
       </c>
       <c r="G383" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H383" t="s">
-        <v>207</v>
+        <v>466</v>
       </c>
       <c r="I383" t="s">
         <v>70</v>
       </c>
       <c r="J383" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
       <c r="K383" t="s">
         <v>68</v>
@@ -14097,16 +14217,16 @@
         <v>63</v>
       </c>
       <c r="G384" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H384" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="I384" t="s">
         <v>66</v>
       </c>
       <c r="J384" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K384" t="s">
         <v>68</v>
@@ -14123,16 +14243,16 @@
         <v>63</v>
       </c>
       <c r="G385" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H385" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="I385" t="s">
         <v>70</v>
       </c>
       <c r="J385" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="K385" t="s">
         <v>68</v>
@@ -14149,16 +14269,16 @@
         <v>63</v>
       </c>
       <c r="G386" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H386" t="s">
-        <v>214</v>
+        <v>470</v>
       </c>
       <c r="I386" t="s">
         <v>66</v>
       </c>
       <c r="J386" t="s">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="K386" t="s">
         <v>68</v>
@@ -14175,16 +14295,16 @@
         <v>63</v>
       </c>
       <c r="G387" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H387" t="s">
-        <v>214</v>
+        <v>470</v>
       </c>
       <c r="I387" t="s">
         <v>70</v>
       </c>
       <c r="J387" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="K387" t="s">
         <v>68</v>
@@ -14201,16 +14321,16 @@
         <v>63</v>
       </c>
       <c r="G388" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H388" t="s">
-        <v>217</v>
+        <v>471</v>
       </c>
       <c r="I388" t="s">
         <v>66</v>
       </c>
       <c r="J388" t="s">
-        <v>334</v>
+        <v>472</v>
       </c>
       <c r="K388" t="s">
         <v>68</v>
@@ -14227,16 +14347,16 @@
         <v>63</v>
       </c>
       <c r="G389" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H389" t="s">
-        <v>217</v>
+        <v>471</v>
       </c>
       <c r="I389" t="s">
         <v>70</v>
       </c>
       <c r="J389" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="K389" t="s">
         <v>68</v>
@@ -14253,16 +14373,16 @@
         <v>63</v>
       </c>
       <c r="G390" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H390" t="s">
-        <v>220</v>
+        <v>473</v>
       </c>
       <c r="I390" t="s">
         <v>66</v>
       </c>
       <c r="J390" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="K390" t="s">
         <v>68</v>
@@ -14279,16 +14399,16 @@
         <v>63</v>
       </c>
       <c r="G391" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H391" t="s">
-        <v>220</v>
+        <v>473</v>
       </c>
       <c r="I391" t="s">
         <v>70</v>
       </c>
       <c r="J391" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="K391" t="s">
         <v>68</v>
@@ -14305,16 +14425,16 @@
         <v>63</v>
       </c>
       <c r="G392" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H392" t="s">
-        <v>223</v>
+        <v>475</v>
       </c>
       <c r="I392" t="s">
         <v>66</v>
       </c>
       <c r="J392" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="K392" t="s">
         <v>68</v>
@@ -14331,16 +14451,16 @@
         <v>63</v>
       </c>
       <c r="G393" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H393" t="s">
-        <v>223</v>
+        <v>475</v>
       </c>
       <c r="I393" t="s">
         <v>70</v>
       </c>
       <c r="J393" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="K393" t="s">
         <v>68</v>
@@ -14357,16 +14477,16 @@
         <v>63</v>
       </c>
       <c r="G394" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H394" t="s">
-        <v>226</v>
+        <v>476</v>
       </c>
       <c r="I394" t="s">
         <v>66</v>
       </c>
       <c r="J394" t="s">
-        <v>227</v>
+        <v>368</v>
       </c>
       <c r="K394" t="s">
         <v>68</v>
@@ -14383,16 +14503,16 @@
         <v>63</v>
       </c>
       <c r="G395" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H395" t="s">
-        <v>226</v>
+        <v>476</v>
       </c>
       <c r="I395" t="s">
         <v>70</v>
       </c>
       <c r="J395" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="K395" t="s">
         <v>68</v>
@@ -14409,16 +14529,16 @@
         <v>63</v>
       </c>
       <c r="G396" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H396" t="s">
-        <v>229</v>
+        <v>477</v>
       </c>
       <c r="I396" t="s">
         <v>66</v>
       </c>
       <c r="J396" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="K396" t="s">
         <v>68</v>
@@ -14435,16 +14555,16 @@
         <v>63</v>
       </c>
       <c r="G397" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H397" t="s">
-        <v>229</v>
+        <v>477</v>
       </c>
       <c r="I397" t="s">
         <v>70</v>
       </c>
       <c r="J397" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="K397" t="s">
         <v>68</v>
@@ -14461,16 +14581,16 @@
         <v>63</v>
       </c>
       <c r="G398" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H398" t="s">
-        <v>235</v>
+        <v>478</v>
       </c>
       <c r="I398" t="s">
         <v>66</v>
       </c>
       <c r="J398" t="s">
-        <v>465</v>
+        <v>94</v>
       </c>
       <c r="K398" t="s">
         <v>68</v>
@@ -14487,16 +14607,16 @@
         <v>63</v>
       </c>
       <c r="G399" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H399" t="s">
-        <v>235</v>
+        <v>478</v>
       </c>
       <c r="I399" t="s">
         <v>70</v>
       </c>
       <c r="J399" t="s">
-        <v>237</v>
+        <v>95</v>
       </c>
       <c r="K399" t="s">
         <v>68</v>
@@ -14513,16 +14633,16 @@
         <v>63</v>
       </c>
       <c r="G400" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H400" t="s">
-        <v>238</v>
+        <v>479</v>
       </c>
       <c r="I400" t="s">
         <v>66</v>
       </c>
       <c r="J400" t="s">
-        <v>239</v>
+        <v>94</v>
       </c>
       <c r="K400" t="s">
         <v>68</v>
@@ -14539,16 +14659,16 @@
         <v>63</v>
       </c>
       <c r="G401" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H401" t="s">
-        <v>238</v>
+        <v>479</v>
       </c>
       <c r="I401" t="s">
         <v>70</v>
       </c>
       <c r="J401" t="s">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="K401" t="s">
         <v>68</v>
@@ -14565,16 +14685,16 @@
         <v>63</v>
       </c>
       <c r="G402" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H402" t="s">
-        <v>241</v>
+        <v>480</v>
       </c>
       <c r="I402" t="s">
         <v>66</v>
       </c>
       <c r="J402" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="K402" t="s">
         <v>68</v>
@@ -14591,16 +14711,16 @@
         <v>63</v>
       </c>
       <c r="G403" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H403" t="s">
-        <v>241</v>
+        <v>480</v>
       </c>
       <c r="I403" t="s">
         <v>70</v>
       </c>
       <c r="J403" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="K403" t="s">
         <v>68</v>
@@ -14617,16 +14737,16 @@
         <v>63</v>
       </c>
       <c r="G404" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H404" t="s">
-        <v>244</v>
+        <v>481</v>
       </c>
       <c r="I404" t="s">
         <v>66</v>
       </c>
       <c r="J404" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="K404" t="s">
         <v>68</v>
@@ -14643,16 +14763,16 @@
         <v>63</v>
       </c>
       <c r="G405" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H405" t="s">
-        <v>244</v>
+        <v>481</v>
       </c>
       <c r="I405" t="s">
         <v>70</v>
       </c>
       <c r="J405" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="K405" t="s">
         <v>68</v>
@@ -14669,16 +14789,16 @@
         <v>63</v>
       </c>
       <c r="G406" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H406" t="s">
-        <v>247</v>
+        <v>482</v>
       </c>
       <c r="I406" t="s">
         <v>66</v>
       </c>
       <c r="J406" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="K406" t="s">
         <v>68</v>
@@ -14695,16 +14815,16 @@
         <v>63</v>
       </c>
       <c r="G407" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H407" t="s">
-        <v>247</v>
+        <v>482</v>
       </c>
       <c r="I407" t="s">
         <v>70</v>
       </c>
       <c r="J407" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="K407" t="s">
         <v>68</v>
@@ -14721,16 +14841,16 @@
         <v>63</v>
       </c>
       <c r="G408" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H408" t="s">
-        <v>250</v>
+        <v>483</v>
       </c>
       <c r="I408" t="s">
         <v>66</v>
       </c>
       <c r="J408" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="K408" t="s">
         <v>68</v>
@@ -14747,16 +14867,16 @@
         <v>63</v>
       </c>
       <c r="G409" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H409" t="s">
-        <v>250</v>
+        <v>483</v>
       </c>
       <c r="I409" t="s">
         <v>70</v>
       </c>
       <c r="J409" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="K409" t="s">
         <v>68</v>
@@ -14773,16 +14893,16 @@
         <v>63</v>
       </c>
       <c r="G410" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H410" t="s">
-        <v>251</v>
+        <v>484</v>
       </c>
       <c r="I410" t="s">
         <v>66</v>
       </c>
       <c r="J410" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="K410" t="s">
         <v>68</v>
@@ -14799,16 +14919,16 @@
         <v>63</v>
       </c>
       <c r="G411" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H411" t="s">
-        <v>251</v>
+        <v>484</v>
       </c>
       <c r="I411" t="s">
         <v>70</v>
       </c>
       <c r="J411" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="K411" t="s">
         <v>68</v>
@@ -14825,16 +14945,16 @@
         <v>63</v>
       </c>
       <c r="G412" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H412" t="s">
-        <v>252</v>
+        <v>485</v>
       </c>
       <c r="I412" t="s">
         <v>66</v>
       </c>
       <c r="J412" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="K412" t="s">
         <v>68</v>
@@ -14851,16 +14971,16 @@
         <v>63</v>
       </c>
       <c r="G413" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H413" t="s">
-        <v>252</v>
+        <v>485</v>
       </c>
       <c r="I413" t="s">
         <v>70</v>
       </c>
       <c r="J413" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="K413" t="s">
         <v>68</v>
@@ -14877,16 +14997,16 @@
         <v>63</v>
       </c>
       <c r="G414" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H414" t="s">
-        <v>255</v>
+        <v>486</v>
       </c>
       <c r="I414" t="s">
         <v>66</v>
       </c>
       <c r="J414" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="K414" t="s">
         <v>68</v>
@@ -14903,16 +15023,16 @@
         <v>63</v>
       </c>
       <c r="G415" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H415" t="s">
-        <v>255</v>
+        <v>486</v>
       </c>
       <c r="I415" t="s">
         <v>70</v>
       </c>
       <c r="J415" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="K415" t="s">
         <v>68</v>
@@ -14929,16 +15049,16 @@
         <v>63</v>
       </c>
       <c r="G416" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H416" t="s">
-        <v>258</v>
+        <v>487</v>
       </c>
       <c r="I416" t="s">
         <v>66</v>
       </c>
       <c r="J416" t="s">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="K416" t="s">
         <v>68</v>
@@ -14955,16 +15075,16 @@
         <v>63</v>
       </c>
       <c r="G417" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H417" t="s">
-        <v>258</v>
+        <v>487</v>
       </c>
       <c r="I417" t="s">
         <v>70</v>
       </c>
       <c r="J417" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="K417" t="s">
         <v>68</v>
@@ -14981,16 +15101,16 @@
         <v>63</v>
       </c>
       <c r="G418" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H418" t="s">
-        <v>261</v>
+        <v>488</v>
       </c>
       <c r="I418" t="s">
         <v>66</v>
       </c>
       <c r="J418" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="K418" t="s">
         <v>68</v>
@@ -15007,16 +15127,16 @@
         <v>63</v>
       </c>
       <c r="G419" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H419" t="s">
-        <v>261</v>
+        <v>488</v>
       </c>
       <c r="I419" t="s">
         <v>70</v>
       </c>
       <c r="J419" t="s">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="K419" t="s">
         <v>68</v>
@@ -15033,16 +15153,16 @@
         <v>63</v>
       </c>
       <c r="G420" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H420" t="s">
-        <v>264</v>
+        <v>489</v>
       </c>
       <c r="I420" t="s">
         <v>66</v>
       </c>
       <c r="J420" t="s">
-        <v>265</v>
+        <v>490</v>
       </c>
       <c r="K420" t="s">
         <v>68</v>
@@ -15059,16 +15179,16 @@
         <v>63</v>
       </c>
       <c r="G421" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H421" t="s">
-        <v>264</v>
+        <v>489</v>
       </c>
       <c r="I421" t="s">
         <v>70</v>
       </c>
       <c r="J421" t="s">
-        <v>266</v>
+        <v>491</v>
       </c>
       <c r="K421" t="s">
         <v>68</v>
@@ -15085,16 +15205,16 @@
         <v>63</v>
       </c>
       <c r="G422" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H422" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="I422" t="s">
         <v>66</v>
       </c>
       <c r="J422" t="s">
-        <v>467</v>
+        <v>112</v>
       </c>
       <c r="K422" t="s">
         <v>68</v>
@@ -15111,21 +15231,1581 @@
         <v>63</v>
       </c>
       <c r="G423" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H423" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="I423" t="s">
         <v>70</v>
       </c>
       <c r="J423" t="s">
-        <v>468</v>
+        <v>198</v>
       </c>
       <c r="K423" t="s">
         <v>68</v>
       </c>
       <c r="L423" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="E424" t="s">
+        <v>62</v>
+      </c>
+      <c r="F424" t="s">
+        <v>63</v>
+      </c>
+      <c r="G424" t="s">
+        <v>469</v>
+      </c>
+      <c r="H424" t="s">
+        <v>493</v>
+      </c>
+      <c r="I424" t="s">
+        <v>66</v>
+      </c>
+      <c r="J424" t="s">
+        <v>201</v>
+      </c>
+      <c r="K424" t="s">
+        <v>68</v>
+      </c>
+      <c r="L424" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="E425" t="s">
+        <v>62</v>
+      </c>
+      <c r="F425" t="s">
+        <v>63</v>
+      </c>
+      <c r="G425" t="s">
+        <v>469</v>
+      </c>
+      <c r="H425" t="s">
+        <v>493</v>
+      </c>
+      <c r="I425" t="s">
+        <v>70</v>
+      </c>
+      <c r="J425" t="s">
+        <v>202</v>
+      </c>
+      <c r="K425" t="s">
+        <v>68</v>
+      </c>
+      <c r="L425" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="E426" t="s">
+        <v>62</v>
+      </c>
+      <c r="F426" t="s">
+        <v>63</v>
+      </c>
+      <c r="G426" t="s">
+        <v>469</v>
+      </c>
+      <c r="H426" t="s">
+        <v>494</v>
+      </c>
+      <c r="I426" t="s">
+        <v>66</v>
+      </c>
+      <c r="J426" t="s">
+        <v>201</v>
+      </c>
+      <c r="K426" t="s">
+        <v>68</v>
+      </c>
+      <c r="L426" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="E427" t="s">
+        <v>62</v>
+      </c>
+      <c r="F427" t="s">
+        <v>63</v>
+      </c>
+      <c r="G427" t="s">
+        <v>469</v>
+      </c>
+      <c r="H427" t="s">
+        <v>494</v>
+      </c>
+      <c r="I427" t="s">
+        <v>70</v>
+      </c>
+      <c r="J427" t="s">
+        <v>202</v>
+      </c>
+      <c r="K427" t="s">
+        <v>68</v>
+      </c>
+      <c r="L427" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="E428" t="s">
+        <v>62</v>
+      </c>
+      <c r="F428" t="s">
+        <v>63</v>
+      </c>
+      <c r="G428" t="s">
+        <v>469</v>
+      </c>
+      <c r="H428" t="s">
+        <v>495</v>
+      </c>
+      <c r="I428" t="s">
+        <v>66</v>
+      </c>
+      <c r="J428" t="s">
+        <v>496</v>
+      </c>
+      <c r="K428" t="s">
+        <v>68</v>
+      </c>
+      <c r="L428" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="E429" t="s">
+        <v>62</v>
+      </c>
+      <c r="F429" t="s">
+        <v>63</v>
+      </c>
+      <c r="G429" t="s">
+        <v>469</v>
+      </c>
+      <c r="H429" t="s">
+        <v>495</v>
+      </c>
+      <c r="I429" t="s">
+        <v>70</v>
+      </c>
+      <c r="J429" t="s">
+        <v>205</v>
+      </c>
+      <c r="K429" t="s">
+        <v>68</v>
+      </c>
+      <c r="L429" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="E430" t="s">
+        <v>62</v>
+      </c>
+      <c r="F430" t="s">
+        <v>63</v>
+      </c>
+      <c r="G430" t="s">
+        <v>469</v>
+      </c>
+      <c r="H430" t="s">
+        <v>497</v>
+      </c>
+      <c r="I430" t="s">
+        <v>66</v>
+      </c>
+      <c r="J430" t="s">
+        <v>207</v>
+      </c>
+      <c r="K430" t="s">
+        <v>68</v>
+      </c>
+      <c r="L430" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="E431" t="s">
+        <v>62</v>
+      </c>
+      <c r="F431" t="s">
+        <v>63</v>
+      </c>
+      <c r="G431" t="s">
+        <v>469</v>
+      </c>
+      <c r="H431" t="s">
+        <v>497</v>
+      </c>
+      <c r="I431" t="s">
+        <v>70</v>
+      </c>
+      <c r="J431" t="s">
+        <v>98</v>
+      </c>
+      <c r="K431" t="s">
+        <v>68</v>
+      </c>
+      <c r="L431" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="E432" t="s">
+        <v>62</v>
+      </c>
+      <c r="F432" t="s">
+        <v>63</v>
+      </c>
+      <c r="G432" t="s">
+        <v>469</v>
+      </c>
+      <c r="H432" t="s">
+        <v>498</v>
+      </c>
+      <c r="I432" t="s">
+        <v>66</v>
+      </c>
+      <c r="J432" t="s">
+        <v>499</v>
+      </c>
+      <c r="K432" t="s">
+        <v>68</v>
+      </c>
+      <c r="L432" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="E433" t="s">
+        <v>62</v>
+      </c>
+      <c r="F433" t="s">
+        <v>63</v>
+      </c>
+      <c r="G433" t="s">
+        <v>469</v>
+      </c>
+      <c r="H433" t="s">
+        <v>498</v>
+      </c>
+      <c r="I433" t="s">
+        <v>70</v>
+      </c>
+      <c r="J433" t="s">
+        <v>210</v>
+      </c>
+      <c r="K433" t="s">
+        <v>68</v>
+      </c>
+      <c r="L433" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="E434" t="s">
+        <v>62</v>
+      </c>
+      <c r="F434" t="s">
+        <v>63</v>
+      </c>
+      <c r="G434" t="s">
+        <v>469</v>
+      </c>
+      <c r="H434" t="s">
+        <v>500</v>
+      </c>
+      <c r="I434" t="s">
+        <v>66</v>
+      </c>
+      <c r="J434" t="s">
+        <v>214</v>
+      </c>
+      <c r="K434" t="s">
+        <v>68</v>
+      </c>
+      <c r="L434" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="E435" t="s">
+        <v>62</v>
+      </c>
+      <c r="F435" t="s">
+        <v>63</v>
+      </c>
+      <c r="G435" t="s">
+        <v>469</v>
+      </c>
+      <c r="H435" t="s">
+        <v>500</v>
+      </c>
+      <c r="I435" t="s">
+        <v>70</v>
+      </c>
+      <c r="J435" t="s">
+        <v>212</v>
+      </c>
+      <c r="K435" t="s">
+        <v>68</v>
+      </c>
+      <c r="L435" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="E436" t="s">
+        <v>62</v>
+      </c>
+      <c r="F436" t="s">
+        <v>63</v>
+      </c>
+      <c r="G436" t="s">
+        <v>469</v>
+      </c>
+      <c r="H436" t="s">
+        <v>501</v>
+      </c>
+      <c r="I436" t="s">
+        <v>66</v>
+      </c>
+      <c r="J436" t="s">
+        <v>502</v>
+      </c>
+      <c r="K436" t="s">
+        <v>68</v>
+      </c>
+      <c r="L436" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="E437" t="s">
+        <v>62</v>
+      </c>
+      <c r="F437" t="s">
+        <v>63</v>
+      </c>
+      <c r="G437" t="s">
+        <v>469</v>
+      </c>
+      <c r="H437" t="s">
+        <v>501</v>
+      </c>
+      <c r="I437" t="s">
+        <v>70</v>
+      </c>
+      <c r="J437" t="s">
+        <v>217</v>
+      </c>
+      <c r="K437" t="s">
+        <v>68</v>
+      </c>
+      <c r="L437" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="E438" t="s">
+        <v>62</v>
+      </c>
+      <c r="F438" t="s">
+        <v>63</v>
+      </c>
+      <c r="G438" t="s">
+        <v>469</v>
+      </c>
+      <c r="H438" t="s">
+        <v>218</v>
+      </c>
+      <c r="I438" t="s">
+        <v>66</v>
+      </c>
+      <c r="J438" t="s">
+        <v>219</v>
+      </c>
+      <c r="K438" t="s">
+        <v>68</v>
+      </c>
+      <c r="L438" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="E439" t="s">
+        <v>62</v>
+      </c>
+      <c r="F439" t="s">
+        <v>63</v>
+      </c>
+      <c r="G439" t="s">
+        <v>469</v>
+      </c>
+      <c r="H439" t="s">
+        <v>218</v>
+      </c>
+      <c r="I439" t="s">
+        <v>70</v>
+      </c>
+      <c r="J439" t="s">
+        <v>220</v>
+      </c>
+      <c r="K439" t="s">
+        <v>68</v>
+      </c>
+      <c r="L439" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="E440" t="s">
+        <v>62</v>
+      </c>
+      <c r="F440" t="s">
+        <v>63</v>
+      </c>
+      <c r="G440" t="s">
+        <v>469</v>
+      </c>
+      <c r="H440" t="s">
+        <v>221</v>
+      </c>
+      <c r="I440" t="s">
+        <v>66</v>
+      </c>
+      <c r="J440" t="s">
+        <v>503</v>
+      </c>
+      <c r="K440" t="s">
+        <v>68</v>
+      </c>
+      <c r="L440" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="E441" t="s">
+        <v>62</v>
+      </c>
+      <c r="F441" t="s">
+        <v>63</v>
+      </c>
+      <c r="G441" t="s">
+        <v>469</v>
+      </c>
+      <c r="H441" t="s">
+        <v>221</v>
+      </c>
+      <c r="I441" t="s">
+        <v>70</v>
+      </c>
+      <c r="J441" t="s">
+        <v>223</v>
+      </c>
+      <c r="K441" t="s">
+        <v>68</v>
+      </c>
+      <c r="L441" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="E442" t="s">
+        <v>62</v>
+      </c>
+      <c r="F442" t="s">
+        <v>63</v>
+      </c>
+      <c r="G442" t="s">
+        <v>469</v>
+      </c>
+      <c r="H442" t="s">
+        <v>224</v>
+      </c>
+      <c r="I442" t="s">
+        <v>66</v>
+      </c>
+      <c r="J442" t="s">
+        <v>225</v>
+      </c>
+      <c r="K442" t="s">
+        <v>68</v>
+      </c>
+      <c r="L442" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="E443" t="s">
+        <v>62</v>
+      </c>
+      <c r="F443" t="s">
+        <v>63</v>
+      </c>
+      <c r="G443" t="s">
+        <v>469</v>
+      </c>
+      <c r="H443" t="s">
+        <v>224</v>
+      </c>
+      <c r="I443" t="s">
+        <v>70</v>
+      </c>
+      <c r="J443" t="s">
+        <v>226</v>
+      </c>
+      <c r="K443" t="s">
+        <v>68</v>
+      </c>
+      <c r="L443" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="E444" t="s">
+        <v>62</v>
+      </c>
+      <c r="F444" t="s">
+        <v>63</v>
+      </c>
+      <c r="G444" t="s">
+        <v>469</v>
+      </c>
+      <c r="H444" t="s">
+        <v>227</v>
+      </c>
+      <c r="I444" t="s">
+        <v>66</v>
+      </c>
+      <c r="J444" t="s">
+        <v>504</v>
+      </c>
+      <c r="K444" t="s">
+        <v>68</v>
+      </c>
+      <c r="L444" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="E445" t="s">
+        <v>62</v>
+      </c>
+      <c r="F445" t="s">
+        <v>63</v>
+      </c>
+      <c r="G445" t="s">
+        <v>469</v>
+      </c>
+      <c r="H445" t="s">
+        <v>227</v>
+      </c>
+      <c r="I445" t="s">
+        <v>70</v>
+      </c>
+      <c r="J445" t="s">
+        <v>228</v>
+      </c>
+      <c r="K445" t="s">
+        <v>68</v>
+      </c>
+      <c r="L445" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="E446" t="s">
+        <v>62</v>
+      </c>
+      <c r="F446" t="s">
+        <v>63</v>
+      </c>
+      <c r="G446" t="s">
+        <v>505</v>
+      </c>
+      <c r="H446" t="s">
+        <v>253</v>
+      </c>
+      <c r="I446" t="s">
+        <v>66</v>
+      </c>
+      <c r="J446" t="s">
+        <v>254</v>
+      </c>
+      <c r="K446" t="s">
+        <v>68</v>
+      </c>
+      <c r="L446" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="E447" t="s">
+        <v>62</v>
+      </c>
+      <c r="F447" t="s">
+        <v>63</v>
+      </c>
+      <c r="G447" t="s">
+        <v>505</v>
+      </c>
+      <c r="H447" t="s">
+        <v>253</v>
+      </c>
+      <c r="I447" t="s">
+        <v>70</v>
+      </c>
+      <c r="J447" t="s">
+        <v>255</v>
+      </c>
+      <c r="K447" t="s">
+        <v>68</v>
+      </c>
+      <c r="L447" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="E448" t="s">
+        <v>62</v>
+      </c>
+      <c r="F448" t="s">
+        <v>63</v>
+      </c>
+      <c r="G448" t="s">
+        <v>505</v>
+      </c>
+      <c r="H448" t="s">
+        <v>256</v>
+      </c>
+      <c r="I448" t="s">
+        <v>66</v>
+      </c>
+      <c r="J448" t="s">
+        <v>370</v>
+      </c>
+      <c r="K448" t="s">
+        <v>68</v>
+      </c>
+      <c r="L448" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="E449" t="s">
+        <v>62</v>
+      </c>
+      <c r="F449" t="s">
+        <v>63</v>
+      </c>
+      <c r="G449" t="s">
+        <v>505</v>
+      </c>
+      <c r="H449" t="s">
+        <v>256</v>
+      </c>
+      <c r="I449" t="s">
+        <v>70</v>
+      </c>
+      <c r="J449" t="s">
+        <v>247</v>
+      </c>
+      <c r="K449" t="s">
+        <v>68</v>
+      </c>
+      <c r="L449" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="E450" t="s">
+        <v>62</v>
+      </c>
+      <c r="F450" t="s">
+        <v>63</v>
+      </c>
+      <c r="G450" t="s">
+        <v>505</v>
+      </c>
+      <c r="H450" t="s">
+        <v>258</v>
+      </c>
+      <c r="I450" t="s">
+        <v>66</v>
+      </c>
+      <c r="J450" t="s">
+        <v>506</v>
+      </c>
+      <c r="K450" t="s">
+        <v>68</v>
+      </c>
+      <c r="L450" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="E451" t="s">
+        <v>62</v>
+      </c>
+      <c r="F451" t="s">
+        <v>63</v>
+      </c>
+      <c r="G451" t="s">
+        <v>505</v>
+      </c>
+      <c r="H451" t="s">
+        <v>258</v>
+      </c>
+      <c r="I451" t="s">
+        <v>70</v>
+      </c>
+      <c r="J451" t="s">
+        <v>260</v>
+      </c>
+      <c r="K451" t="s">
+        <v>68</v>
+      </c>
+      <c r="L451" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="E452" t="s">
+        <v>62</v>
+      </c>
+      <c r="F452" t="s">
+        <v>63</v>
+      </c>
+      <c r="G452" t="s">
+        <v>505</v>
+      </c>
+      <c r="H452" t="s">
+        <v>261</v>
+      </c>
+      <c r="I452" t="s">
+        <v>66</v>
+      </c>
+      <c r="J452" t="s">
+        <v>262</v>
+      </c>
+      <c r="K452" t="s">
+        <v>68</v>
+      </c>
+      <c r="L452" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="E453" t="s">
+        <v>62</v>
+      </c>
+      <c r="F453" t="s">
+        <v>63</v>
+      </c>
+      <c r="G453" t="s">
+        <v>505</v>
+      </c>
+      <c r="H453" t="s">
+        <v>261</v>
+      </c>
+      <c r="I453" t="s">
+        <v>70</v>
+      </c>
+      <c r="J453" t="s">
+        <v>241</v>
+      </c>
+      <c r="K453" t="s">
+        <v>68</v>
+      </c>
+      <c r="L453" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="E454" t="s">
+        <v>62</v>
+      </c>
+      <c r="F454" t="s">
+        <v>63</v>
+      </c>
+      <c r="G454" t="s">
+        <v>505</v>
+      </c>
+      <c r="H454" t="s">
+        <v>263</v>
+      </c>
+      <c r="I454" t="s">
+        <v>66</v>
+      </c>
+      <c r="J454" t="s">
+        <v>264</v>
+      </c>
+      <c r="K454" t="s">
+        <v>68</v>
+      </c>
+      <c r="L454" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="E455" t="s">
+        <v>62</v>
+      </c>
+      <c r="F455" t="s">
+        <v>63</v>
+      </c>
+      <c r="G455" t="s">
+        <v>505</v>
+      </c>
+      <c r="H455" t="s">
+        <v>263</v>
+      </c>
+      <c r="I455" t="s">
+        <v>70</v>
+      </c>
+      <c r="J455" t="s">
+        <v>265</v>
+      </c>
+      <c r="K455" t="s">
+        <v>68</v>
+      </c>
+      <c r="L455" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="E456" t="s">
+        <v>62</v>
+      </c>
+      <c r="F456" t="s">
+        <v>63</v>
+      </c>
+      <c r="G456" t="s">
+        <v>505</v>
+      </c>
+      <c r="H456" t="s">
+        <v>266</v>
+      </c>
+      <c r="I456" t="s">
+        <v>66</v>
+      </c>
+      <c r="J456" t="s">
+        <v>268</v>
+      </c>
+      <c r="K456" t="s">
+        <v>68</v>
+      </c>
+      <c r="L456" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="E457" t="s">
+        <v>62</v>
+      </c>
+      <c r="F457" t="s">
+        <v>63</v>
+      </c>
+      <c r="G457" t="s">
+        <v>505</v>
+      </c>
+      <c r="H457" t="s">
+        <v>266</v>
+      </c>
+      <c r="I457" t="s">
+        <v>70</v>
+      </c>
+      <c r="J457" t="s">
+        <v>268</v>
+      </c>
+      <c r="K457" t="s">
+        <v>68</v>
+      </c>
+      <c r="L457" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="E458" t="s">
+        <v>62</v>
+      </c>
+      <c r="F458" t="s">
+        <v>63</v>
+      </c>
+      <c r="G458" t="s">
+        <v>505</v>
+      </c>
+      <c r="H458" t="s">
+        <v>272</v>
+      </c>
+      <c r="I458" t="s">
+        <v>66</v>
+      </c>
+      <c r="J458" t="s">
+        <v>507</v>
+      </c>
+      <c r="K458" t="s">
+        <v>68</v>
+      </c>
+      <c r="L458" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="E459" t="s">
+        <v>62</v>
+      </c>
+      <c r="F459" t="s">
+        <v>63</v>
+      </c>
+      <c r="G459" t="s">
+        <v>505</v>
+      </c>
+      <c r="H459" t="s">
+        <v>272</v>
+      </c>
+      <c r="I459" t="s">
+        <v>70</v>
+      </c>
+      <c r="J459" t="s">
+        <v>274</v>
+      </c>
+      <c r="K459" t="s">
+        <v>68</v>
+      </c>
+      <c r="L459" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="E460" t="s">
+        <v>62</v>
+      </c>
+      <c r="F460" t="s">
+        <v>63</v>
+      </c>
+      <c r="G460" t="s">
+        <v>505</v>
+      </c>
+      <c r="H460" t="s">
+        <v>275</v>
+      </c>
+      <c r="I460" t="s">
+        <v>66</v>
+      </c>
+      <c r="J460" t="s">
+        <v>276</v>
+      </c>
+      <c r="K460" t="s">
+        <v>68</v>
+      </c>
+      <c r="L460" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="E461" t="s">
+        <v>62</v>
+      </c>
+      <c r="F461" t="s">
+        <v>63</v>
+      </c>
+      <c r="G461" t="s">
+        <v>505</v>
+      </c>
+      <c r="H461" t="s">
+        <v>275</v>
+      </c>
+      <c r="I461" t="s">
+        <v>70</v>
+      </c>
+      <c r="J461" t="s">
+        <v>277</v>
+      </c>
+      <c r="K461" t="s">
+        <v>68</v>
+      </c>
+      <c r="L461" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="E462" t="s">
+        <v>62</v>
+      </c>
+      <c r="F462" t="s">
+        <v>63</v>
+      </c>
+      <c r="G462" t="s">
+        <v>505</v>
+      </c>
+      <c r="H462" t="s">
+        <v>278</v>
+      </c>
+      <c r="I462" t="s">
+        <v>66</v>
+      </c>
+      <c r="J462" t="s">
+        <v>279</v>
+      </c>
+      <c r="K462" t="s">
+        <v>68</v>
+      </c>
+      <c r="L462" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="E463" t="s">
+        <v>62</v>
+      </c>
+      <c r="F463" t="s">
+        <v>63</v>
+      </c>
+      <c r="G463" t="s">
+        <v>505</v>
+      </c>
+      <c r="H463" t="s">
+        <v>278</v>
+      </c>
+      <c r="I463" t="s">
+        <v>70</v>
+      </c>
+      <c r="J463" t="s">
+        <v>243</v>
+      </c>
+      <c r="K463" t="s">
+        <v>68</v>
+      </c>
+      <c r="L463" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="E464" t="s">
+        <v>62</v>
+      </c>
+      <c r="F464" t="s">
+        <v>63</v>
+      </c>
+      <c r="G464" t="s">
+        <v>505</v>
+      </c>
+      <c r="H464" t="s">
+        <v>280</v>
+      </c>
+      <c r="I464" t="s">
+        <v>66</v>
+      </c>
+      <c r="J464" t="s">
+        <v>281</v>
+      </c>
+      <c r="K464" t="s">
+        <v>68</v>
+      </c>
+      <c r="L464" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="E465" t="s">
+        <v>62</v>
+      </c>
+      <c r="F465" t="s">
+        <v>63</v>
+      </c>
+      <c r="G465" t="s">
+        <v>505</v>
+      </c>
+      <c r="H465" t="s">
+        <v>280</v>
+      </c>
+      <c r="I465" t="s">
+        <v>70</v>
+      </c>
+      <c r="J465" t="s">
+        <v>245</v>
+      </c>
+      <c r="K465" t="s">
+        <v>68</v>
+      </c>
+      <c r="L465" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="E466" t="s">
+        <v>62</v>
+      </c>
+      <c r="F466" t="s">
+        <v>63</v>
+      </c>
+      <c r="G466" t="s">
+        <v>505</v>
+      </c>
+      <c r="H466" t="s">
+        <v>282</v>
+      </c>
+      <c r="I466" t="s">
+        <v>66</v>
+      </c>
+      <c r="J466" t="s">
+        <v>283</v>
+      </c>
+      <c r="K466" t="s">
+        <v>68</v>
+      </c>
+      <c r="L466" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="E467" t="s">
+        <v>62</v>
+      </c>
+      <c r="F467" t="s">
+        <v>63</v>
+      </c>
+      <c r="G467" t="s">
+        <v>505</v>
+      </c>
+      <c r="H467" t="s">
+        <v>282</v>
+      </c>
+      <c r="I467" t="s">
+        <v>70</v>
+      </c>
+      <c r="J467" t="s">
+        <v>284</v>
+      </c>
+      <c r="K467" t="s">
+        <v>68</v>
+      </c>
+      <c r="L467" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="E468" t="s">
+        <v>62</v>
+      </c>
+      <c r="F468" t="s">
+        <v>63</v>
+      </c>
+      <c r="G468" t="s">
+        <v>505</v>
+      </c>
+      <c r="H468" t="s">
+        <v>285</v>
+      </c>
+      <c r="I468" t="s">
+        <v>66</v>
+      </c>
+      <c r="J468" t="s">
+        <v>181</v>
+      </c>
+      <c r="K468" t="s">
+        <v>68</v>
+      </c>
+      <c r="L468" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="E469" t="s">
+        <v>62</v>
+      </c>
+      <c r="F469" t="s">
+        <v>63</v>
+      </c>
+      <c r="G469" t="s">
+        <v>505</v>
+      </c>
+      <c r="H469" t="s">
+        <v>285</v>
+      </c>
+      <c r="I469" t="s">
+        <v>70</v>
+      </c>
+      <c r="J469" t="s">
+        <v>182</v>
+      </c>
+      <c r="K469" t="s">
+        <v>68</v>
+      </c>
+      <c r="L469" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="E470" t="s">
+        <v>62</v>
+      </c>
+      <c r="F470" t="s">
+        <v>63</v>
+      </c>
+      <c r="G470" t="s">
+        <v>505</v>
+      </c>
+      <c r="H470" t="s">
+        <v>286</v>
+      </c>
+      <c r="I470" t="s">
+        <v>66</v>
+      </c>
+      <c r="J470" t="s">
+        <v>166</v>
+      </c>
+      <c r="K470" t="s">
+        <v>68</v>
+      </c>
+      <c r="L470" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="E471" t="s">
+        <v>62</v>
+      </c>
+      <c r="F471" t="s">
+        <v>63</v>
+      </c>
+      <c r="G471" t="s">
+        <v>505</v>
+      </c>
+      <c r="H471" t="s">
+        <v>286</v>
+      </c>
+      <c r="I471" t="s">
+        <v>70</v>
+      </c>
+      <c r="J471" t="s">
+        <v>167</v>
+      </c>
+      <c r="K471" t="s">
+        <v>68</v>
+      </c>
+      <c r="L471" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="E472" t="s">
+        <v>62</v>
+      </c>
+      <c r="F472" t="s">
+        <v>63</v>
+      </c>
+      <c r="G472" t="s">
+        <v>505</v>
+      </c>
+      <c r="H472" t="s">
+        <v>287</v>
+      </c>
+      <c r="I472" t="s">
+        <v>66</v>
+      </c>
+      <c r="J472" t="s">
+        <v>288</v>
+      </c>
+      <c r="K472" t="s">
+        <v>68</v>
+      </c>
+      <c r="L472" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="E473" t="s">
+        <v>62</v>
+      </c>
+      <c r="F473" t="s">
+        <v>63</v>
+      </c>
+      <c r="G473" t="s">
+        <v>505</v>
+      </c>
+      <c r="H473" t="s">
+        <v>287</v>
+      </c>
+      <c r="I473" t="s">
+        <v>70</v>
+      </c>
+      <c r="J473" t="s">
+        <v>289</v>
+      </c>
+      <c r="K473" t="s">
+        <v>68</v>
+      </c>
+      <c r="L473" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="E474" t="s">
+        <v>62</v>
+      </c>
+      <c r="F474" t="s">
+        <v>63</v>
+      </c>
+      <c r="G474" t="s">
+        <v>505</v>
+      </c>
+      <c r="H474" t="s">
+        <v>290</v>
+      </c>
+      <c r="I474" t="s">
+        <v>66</v>
+      </c>
+      <c r="J474" t="s">
+        <v>291</v>
+      </c>
+      <c r="K474" t="s">
+        <v>68</v>
+      </c>
+      <c r="L474" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="E475" t="s">
+        <v>62</v>
+      </c>
+      <c r="F475" t="s">
+        <v>63</v>
+      </c>
+      <c r="G475" t="s">
+        <v>505</v>
+      </c>
+      <c r="H475" t="s">
+        <v>290</v>
+      </c>
+      <c r="I475" t="s">
+        <v>70</v>
+      </c>
+      <c r="J475" t="s">
+        <v>292</v>
+      </c>
+      <c r="K475" t="s">
+        <v>68</v>
+      </c>
+      <c r="L475" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="E476" t="s">
+        <v>62</v>
+      </c>
+      <c r="F476" t="s">
+        <v>63</v>
+      </c>
+      <c r="G476" t="s">
+        <v>505</v>
+      </c>
+      <c r="H476" t="s">
+        <v>293</v>
+      </c>
+      <c r="I476" t="s">
+        <v>66</v>
+      </c>
+      <c r="J476" t="s">
+        <v>363</v>
+      </c>
+      <c r="K476" t="s">
+        <v>68</v>
+      </c>
+      <c r="L476" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="E477" t="s">
+        <v>62</v>
+      </c>
+      <c r="F477" t="s">
+        <v>63</v>
+      </c>
+      <c r="G477" t="s">
+        <v>505</v>
+      </c>
+      <c r="H477" t="s">
+        <v>293</v>
+      </c>
+      <c r="I477" t="s">
+        <v>70</v>
+      </c>
+      <c r="J477" t="s">
+        <v>250</v>
+      </c>
+      <c r="K477" t="s">
+        <v>68</v>
+      </c>
+      <c r="L477" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="E478" t="s">
+        <v>62</v>
+      </c>
+      <c r="F478" t="s">
+        <v>63</v>
+      </c>
+      <c r="G478" t="s">
+        <v>505</v>
+      </c>
+      <c r="H478" t="s">
+        <v>295</v>
+      </c>
+      <c r="I478" t="s">
+        <v>66</v>
+      </c>
+      <c r="J478" t="s">
+        <v>296</v>
+      </c>
+      <c r="K478" t="s">
+        <v>68</v>
+      </c>
+      <c r="L478" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="E479" t="s">
+        <v>62</v>
+      </c>
+      <c r="F479" t="s">
+        <v>63</v>
+      </c>
+      <c r="G479" t="s">
+        <v>505</v>
+      </c>
+      <c r="H479" t="s">
+        <v>295</v>
+      </c>
+      <c r="I479" t="s">
+        <v>70</v>
+      </c>
+      <c r="J479" t="s">
+        <v>297</v>
+      </c>
+      <c r="K479" t="s">
+        <v>68</v>
+      </c>
+      <c r="L479" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="E480" t="s">
+        <v>62</v>
+      </c>
+      <c r="F480" t="s">
+        <v>63</v>
+      </c>
+      <c r="G480" t="s">
+        <v>505</v>
+      </c>
+      <c r="H480" t="s">
+        <v>298</v>
+      </c>
+      <c r="I480" t="s">
+        <v>66</v>
+      </c>
+      <c r="J480" t="s">
+        <v>299</v>
+      </c>
+      <c r="K480" t="s">
+        <v>68</v>
+      </c>
+      <c r="L480" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="E481" t="s">
+        <v>62</v>
+      </c>
+      <c r="F481" t="s">
+        <v>63</v>
+      </c>
+      <c r="G481" t="s">
+        <v>505</v>
+      </c>
+      <c r="H481" t="s">
+        <v>298</v>
+      </c>
+      <c r="I481" t="s">
+        <v>70</v>
+      </c>
+      <c r="J481" t="s">
+        <v>300</v>
+      </c>
+      <c r="K481" t="s">
+        <v>68</v>
+      </c>
+      <c r="L481" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="E482" t="s">
+        <v>62</v>
+      </c>
+      <c r="F482" t="s">
+        <v>63</v>
+      </c>
+      <c r="G482" t="s">
+        <v>505</v>
+      </c>
+      <c r="H482" t="s">
+        <v>306</v>
+      </c>
+      <c r="I482" t="s">
+        <v>66</v>
+      </c>
+      <c r="J482" t="s">
+        <v>508</v>
+      </c>
+      <c r="K482" t="s">
+        <v>68</v>
+      </c>
+      <c r="L482" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="E483" t="s">
+        <v>62</v>
+      </c>
+      <c r="F483" t="s">
+        <v>63</v>
+      </c>
+      <c r="G483" t="s">
+        <v>505</v>
+      </c>
+      <c r="H483" t="s">
+        <v>306</v>
+      </c>
+      <c r="I483" t="s">
+        <v>70</v>
+      </c>
+      <c r="J483" t="s">
+        <v>307</v>
+      </c>
+      <c r="K483" t="s">
+        <v>68</v>
+      </c>
+      <c r="L483" t="s">
         <v>69</v>
       </c>
     </row>
